--- a/word_features/季/ENG,2020-4~2020-7,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-4~2020-7,主题_词矩阵.xlsx
@@ -16,235 +16,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>adhanom</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>assistance</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>averaged</t>
-  </si>
-  <si>
-    <t>averaging</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behaving</t>
-  </si>
-  <si>
-    <t>beijing</t>
-  </si>
-  <si>
-    <t>biosafety</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>broad</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>centro</t>
+    <t>accounted</t>
+  </si>
+  <si>
+    <t>achiume</t>
+  </si>
+  <si>
+    <t>african</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>americans</t>
+  </si>
+  <si>
+    <t>antipandemic</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>asean</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>atlantic</t>
+  </si>
+  <si>
+    <t>attacked</t>
+  </si>
+  <si>
+    <t>behaviors</t>
+  </si>
+  <si>
+    <t>blatantly</t>
+  </si>
+  <si>
+    <t>boston</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>breakdown</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>children</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>chinas</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>collaboration</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>committee</t>
+    <t>citizens</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>commented</t>
   </si>
   <si>
     <t>community</t>
   </si>
   <si>
-    <t>comosimple</t>
-  </si>
-  <si>
-    <t>concessions</t>
-  </si>
-  <si>
-    <t>conducted</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>conventional</t>
-  </si>
-  <si>
     <t>cooperation</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>counselor</t>
-  </si>
-  <si>
     <t>countries</t>
   </si>
   <si>
-    <t>cpc</t>
-  </si>
-  <si>
-    <t>cultures</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>deficit</t>
-  </si>
-  <si>
-    <t>deficits</t>
-  </si>
-  <si>
-    <t>depressing</t>
-  </si>
-  <si>
-    <t>deputy</t>
-  </si>
-  <si>
-    <t>diplomatic</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>doctors</t>
-  </si>
-  <si>
-    <t>dollar</t>
-  </si>
-  <si>
-    <t>dollars</t>
-  </si>
-  <si>
-    <t>domestic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>economies</t>
-  </si>
-  <si>
-    <t>efforts</t>
-  </si>
-  <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>embassy</t>
-  </si>
-  <si>
-    <t>equitable</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>exorbitant</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>flu</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>gdp</t>
-  </si>
-  <si>
-    <t>ghebreyesus</t>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>criticized</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>deepened</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <t>detention</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>dies</t>
+  </si>
+  <si>
+    <t>discrimination</t>
+  </si>
+  <si>
+    <t>disproportionately</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>divisive</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t>exacerbated</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>fatality</t>
+  </si>
+  <si>
+    <t>forbes</t>
   </si>
   <si>
     <t>global</t>
@@ -253,148 +160,166 @@
     <t>government</t>
   </si>
   <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>guangdong</t>
-  </si>
-  <si>
-    <t>guangzhou</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>headed</t>
+    <t>grave</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>hn</t>
-  </si>
-  <si>
-    <t>imbalances</t>
-  </si>
-  <si>
-    <t>implications</t>
-  </si>
-  <si>
-    <t>income</t>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>homeless</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>immigrant</t>
+  </si>
+  <si>
+    <t>inefficient</t>
+  </si>
+  <si>
+    <t>inequality</t>
+  </si>
+  <si>
+    <t>injustice</t>
   </si>
   <si>
     <t>international</t>
   </si>
   <si>
-    <t>investigation</t>
-  </si>
-  <si>
-    <t>investors</t>
-  </si>
-  <si>
-    <t>jinping</t>
-  </si>
-  <si>
-    <t>joined</t>
-  </si>
-  <si>
-    <t>joint</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>labs</t>
-  </si>
-  <si>
-    <t>leaders</t>
-  </si>
-  <si>
-    <t>leadership</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>mankind</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>matchmicromessengeri</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>medical</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>medicines</t>
-  </si>
-  <si>
-    <t>micromessenger</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>negativity</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>npc</t>
-  </si>
-  <si>
-    <t>opena</t>
+    <t>intolerance</t>
+  </si>
+  <si>
+    <t>irresponsible</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>layoffs</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>longexisting</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>marginalized</t>
+  </si>
+  <si>
+    <t>massacre</t>
+  </si>
+  <si>
+    <t>mdhhs</t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>michigans</t>
+  </si>
+  <si>
+    <t>midland</t>
+  </si>
+  <si>
+    <t>migrants</t>
+  </si>
+  <si>
+    <t>mislead</t>
+  </si>
+  <si>
+    <t>misled</t>
+  </si>
+  <si>
+    <t>missouri</t>
+  </si>
+  <si>
+    <t>morales</t>
+  </si>
+  <si>
+    <t>muddled</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>naming</t>
+  </si>
+  <si>
+    <t>navarro</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>nondiscrimination</t>
+  </si>
+  <si>
+    <t>nsc</t>
+  </si>
+  <si>
+    <t>obligations</t>
+  </si>
+  <si>
+    <t>obliged</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>obtains</t>
+  </si>
+  <si>
+    <t>oldage</t>
+  </si>
+  <si>
+    <t>onceconcealed</t>
+  </si>
+  <si>
+    <t>onefifth</t>
+  </si>
+  <si>
+    <t>onethird</t>
+  </si>
+  <si>
+    <t>opinionated</t>
+  </si>
+  <si>
+    <t>opponents</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
-    <t>outlets</t>
-  </si>
-  <si>
-    <t>outsize</t>
+    <t>outlet</t>
+  </si>
+  <si>
+    <t>overcrowded</t>
   </si>
   <si>
     <t>pandemic</t>
   </si>
   <si>
-    <t>pandemicaffected</t>
-  </si>
-  <si>
-    <t>pathogens</t>
+    <t>pandemiccontrol</t>
+  </si>
+  <si>
+    <t>paycheck</t>
   </si>
   <si>
     <t>people</t>
@@ -403,217 +328,292 @@
     <t>percent</t>
   </si>
   <si>
-    <t>pkgnamecom</t>
-  </si>
-  <si>
-    <t>plunge</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>potential</t>
-  </si>
-  <si>
-    <t>practices</t>
-  </si>
-  <si>
-    <t>privilege</t>
-  </si>
-  <si>
-    <t>provincial</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>recovery</t>
-  </si>
-  <si>
-    <t>reduce</t>
-  </si>
-  <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t>reports</t>
-  </si>
-  <si>
-    <t>reserve</t>
-  </si>
-  <si>
-    <t>respiratory</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>runs</t>
-  </si>
-  <si>
-    <t>sars</t>
-  </si>
-  <si>
-    <t>savings</t>
-  </si>
-  <si>
-    <t>savingsshort</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>scientists</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>seasons</t>
-  </si>
-  <si>
-    <t>secretary</t>
-  </si>
-  <si>
-    <t>seligsohn</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>sharply</t>
-  </si>
-  <si>
-    <t>shenzhen</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>smartphones</t>
-  </si>
-  <si>
-    <t>solidarity</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>supplies</t>
-  </si>
-  <si>
-    <t>surplus</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>tedros</t>
-  </si>
-  <si>
-    <t>tendency</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>testua</t>
-  </si>
-  <si>
-    <t>theotino</t>
-  </si>
-  <si>
-    <t>toomey</t>
-  </si>
-  <si>
-    <t>traditional</t>
-  </si>
-  <si>
-    <t>transmissible</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>twothree</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>unified</t>
-  </si>
-  <si>
-    <t>uphold</t>
-  </si>
-  <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t>video</t>
+    <t>performances</t>
+  </si>
+  <si>
+    <t>philip</t>
+  </si>
+  <si>
+    <t>philosophical</t>
+  </si>
+  <si>
+    <t>polarization</t>
+  </si>
+  <si>
+    <t>polarized</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>predicting</t>
+  </si>
+  <si>
+    <t>proposition</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>racial</t>
+  </si>
+  <si>
+    <t>racism</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>rapporteur</t>
+  </si>
+  <si>
+    <t>ratified</t>
+  </si>
+  <si>
+    <t>ration</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>repatriated</t>
+  </si>
+  <si>
+    <t>repeatedly</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t>requesting</t>
+  </si>
+  <si>
+    <t>rescued</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>revisited</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>rightwing</t>
+  </si>
+  <si>
+    <t>rubbish</t>
+  </si>
+  <si>
+    <t>sameday</t>
+  </si>
+  <si>
+    <t>sank</t>
+  </si>
+  <si>
+    <t>scandals</t>
+  </si>
+  <si>
+    <t>selfinterested</t>
+  </si>
+  <si>
+    <t>shapiro</t>
+  </si>
+  <si>
+    <t>shelters</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>slacked</t>
+  </si>
+  <si>
+    <t>slackness</t>
+  </si>
+  <si>
+    <t>slept</t>
+  </si>
+  <si>
+    <t>smalland</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>spilled</t>
+  </si>
+  <si>
+    <t>stabbed</t>
+  </si>
+  <si>
+    <t>stateapproved</t>
+  </si>
+  <si>
+    <t>stating</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>stereotyping</t>
+  </si>
+  <si>
+    <t>stigmatized</t>
+  </si>
+  <si>
+    <t>stipulated</t>
+  </si>
+  <si>
+    <t>stipulates</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>subheadline</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>supremacy</t>
+  </si>
+  <si>
+    <t>tantamount</t>
+  </si>
+  <si>
+    <t>tendayi</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>titanic</t>
+  </si>
+  <si>
+    <t>touchstone</t>
+  </si>
+  <si>
+    <t>tragic</t>
+  </si>
+  <si>
+    <t>trillions</t>
+  </si>
+  <si>
+    <t>twofifths</t>
+  </si>
+  <si>
+    <t>uche</t>
+  </si>
+  <si>
+    <t>unaccompanied</t>
+  </si>
+  <si>
+    <t>unanimously</t>
+  </si>
+  <si>
+    <t>underwent</t>
+  </si>
+  <si>
+    <t>unforgivable</t>
+  </si>
+  <si>
+    <t>unidentified</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>unprecedentedly</t>
+  </si>
+  <si>
+    <t>upsetting</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>venomous</t>
+  </si>
+  <si>
+    <t>viciously</t>
+  </si>
+  <si>
+    <t>victims</t>
+  </si>
+  <si>
+    <t>viewed</t>
+  </si>
+  <si>
+    <t>violated</t>
+  </si>
+  <si>
+    <t>violation</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>violently</t>
   </si>
   <si>
     <t>virus</t>
   </si>
   <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>warp</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>waves</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>wednesday</t>
-  </si>
-  <si>
-    <t>widen</t>
-  </si>
-  <si>
-    <t>window</t>
+    <t>vox</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>whites</t>
+  </si>
+  <si>
+    <t>wields</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>worrisome</t>
+  </si>
+  <si>
+    <t>xenophobia</t>
+  </si>
+  <si>
+    <t>xenophobic</t>
   </si>
   <si>
     <t>xi</t>
+  </si>
+  <si>
+    <t>york</t>
   </si>
   <si>
     <t>主题1</t>
@@ -1593,604 +1593,604 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>6.333317310282855</v>
+        <v>0.3404012063875047</v>
       </c>
       <c r="C2">
-        <v>0.3333729779178595</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="D2">
-        <v>0.3333669822097876</v>
+        <v>103.8279907903426</v>
       </c>
       <c r="E2">
-        <v>2.333316518485862</v>
+        <v>0.3831082554225207</v>
       </c>
       <c r="F2">
-        <v>0.3334112768338947</v>
+        <v>0.3489492071270386</v>
       </c>
       <c r="G2">
-        <v>0.3333724421329111</v>
+        <v>9.327967068302112</v>
       </c>
       <c r="H2">
-        <v>0.3333433012301187</v>
+        <v>0.4114014168319356</v>
       </c>
       <c r="I2">
-        <v>2.333316518485862</v>
+        <v>0.3704345372726008</v>
       </c>
       <c r="J2">
-        <v>4.333317103779835</v>
+        <v>2.186188332629884</v>
       </c>
       <c r="K2">
-        <v>2.333316518485862</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="L2">
-        <v>0.3334282645928111</v>
+        <v>0.3334929717814482</v>
       </c>
       <c r="M2">
-        <v>2.333125630521214</v>
+        <v>0.3358834638699038</v>
       </c>
       <c r="N2">
-        <v>0.3334062112355082</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="O2">
-        <v>0.3334577247365993</v>
+        <v>0.3334929717814482</v>
       </c>
       <c r="P2">
-        <v>0.3334757621972266</v>
+        <v>0.3449175599029053</v>
       </c>
       <c r="Q2">
-        <v>2.333316518485862</v>
+        <v>0.3518170955071416</v>
       </c>
       <c r="R2">
-        <v>4.333317103779835</v>
+        <v>10.63336984827161</v>
       </c>
       <c r="S2">
-        <v>5.339039603445085</v>
+        <v>0.3527937737817435</v>
       </c>
       <c r="T2">
-        <v>0.3333432358862938</v>
+        <v>1069.959293322627</v>
       </c>
       <c r="U2">
-        <v>2.333125630521214</v>
+        <v>7.749097283542225</v>
       </c>
       <c r="V2">
-        <v>2.329764970511828</v>
+        <v>0.355211045588245</v>
       </c>
       <c r="W2">
-        <v>0.3333596901013735</v>
+        <v>0.3398355311868141</v>
       </c>
       <c r="X2">
-        <v>0.3334014999002781</v>
+        <v>166.5354315742392</v>
       </c>
       <c r="Y2">
-        <v>3.327351076110185</v>
+        <v>387.2495482145617</v>
       </c>
       <c r="Z2">
-        <v>0.3333979154458416</v>
+        <v>640.7673182307944</v>
       </c>
       <c r="AA2">
-        <v>0.3333979154458416</v>
+        <v>430.4419325034648</v>
       </c>
       <c r="AB2">
-        <v>0.3333592050015555</v>
+        <v>2.677638441987666</v>
       </c>
       <c r="AC2">
-        <v>0.3333656030408229</v>
+        <v>0.3574932624361719</v>
       </c>
       <c r="AD2">
-        <v>0.3333724421329111</v>
+        <v>1.329315921578162</v>
       </c>
       <c r="AE2">
-        <v>2.333316518485862</v>
+        <v>0.3500252238119643</v>
       </c>
       <c r="AF2">
-        <v>0.3334112768338947</v>
+        <v>0.3335274111353037</v>
       </c>
       <c r="AG2">
-        <v>0.3333433529878877</v>
+        <v>0.3436333967355056</v>
       </c>
       <c r="AH2">
-        <v>0.3334338081513334</v>
+        <v>0.3395865984962642</v>
       </c>
       <c r="AI2">
-        <v>1.33489304637152</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="AJ2">
-        <v>2.333316518485862</v>
+        <v>8.173952859393363</v>
       </c>
       <c r="AK2">
-        <v>2.333316518485862</v>
+        <v>0.3335274111353037</v>
       </c>
       <c r="AL2">
-        <v>0.3333564119766308</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="AM2">
-        <v>0.3333432639754956</v>
+        <v>0.3592160088758393</v>
       </c>
       <c r="AN2">
-        <v>0.3333979154458416</v>
+        <v>0.3384153590042773</v>
       </c>
       <c r="AO2">
-        <v>0.333388122738306</v>
+        <v>2.992373082763179</v>
       </c>
       <c r="AP2">
-        <v>0.33334315966985</v>
+        <v>2.398174950792147</v>
       </c>
       <c r="AQ2">
-        <v>0.3334282645928111</v>
+        <v>0.3576660178455448</v>
       </c>
       <c r="AR2">
-        <v>3.333316902606013</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="AS2">
-        <v>6.346731066407404</v>
+        <v>0.3448134485353942</v>
       </c>
       <c r="AT2">
-        <v>4.333317103779835</v>
+        <v>0.3695325168474188</v>
       </c>
       <c r="AU2">
-        <v>5.333317227084118</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="AV2">
-        <v>0.3334282645928111</v>
+        <v>587.8520982869609</v>
       </c>
       <c r="AW2">
-        <v>0.3334094948773792</v>
+        <v>59.63739785204673</v>
       </c>
       <c r="AX2">
-        <v>0.3333433012301187</v>
+        <v>4.344539691672692</v>
       </c>
       <c r="AY2">
-        <v>0.3333729779178595</v>
+        <v>0.3374774991226837</v>
       </c>
       <c r="AZ2">
-        <v>0.3334436114878894</v>
+        <v>0.3629987215808756</v>
       </c>
       <c r="BA2">
-        <v>6.333317310282855</v>
+        <v>387.8036932015186</v>
       </c>
       <c r="BB2">
-        <v>2.333316518485862</v>
+        <v>0.333521870320909</v>
       </c>
       <c r="BC2">
-        <v>5.334100923414566</v>
+        <v>0.3335200796835315</v>
       </c>
       <c r="BD2">
-        <v>2.333316518485862</v>
+        <v>22.39769502847538</v>
       </c>
       <c r="BE2">
-        <v>5.343507819211892</v>
+        <v>0.3334829316227823</v>
       </c>
       <c r="BF2">
-        <v>3.333316902606013</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="BG2">
-        <v>1.332799162018517</v>
+        <v>3.317191827034952</v>
       </c>
       <c r="BH2">
-        <v>2.333125630521214</v>
+        <v>0.359131192567429</v>
       </c>
       <c r="BI2">
-        <v>0.3333979154458416</v>
+        <v>430.2635839378697</v>
       </c>
       <c r="BJ2">
-        <v>0.333396439183289</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="BK2">
-        <v>0.3333729779178595</v>
+        <v>0.4554028096394976</v>
       </c>
       <c r="BL2">
-        <v>3.337709616444474</v>
+        <v>6.896339175047376</v>
       </c>
       <c r="BM2">
-        <v>2.333316518485862</v>
+        <v>0.3334774813212988</v>
       </c>
       <c r="BN2">
-        <v>2.333316518485862</v>
+        <v>24.4006151686312</v>
       </c>
       <c r="BO2">
-        <v>3.333316902606013</v>
+        <v>0.3335274111353037</v>
       </c>
       <c r="BP2">
-        <v>1.327960595699923</v>
+        <v>30.0964496539531</v>
       </c>
       <c r="BQ2">
-        <v>0.3333432139546887</v>
+        <v>1.320244468998673</v>
       </c>
       <c r="BR2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BS2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BT2">
-        <v>2.333125630521214</v>
+        <v>53.15902060724735</v>
       </c>
       <c r="BU2">
-        <v>6.333955574753365</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="BV2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BW2">
-        <v>0.3333432639754956</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BX2">
-        <v>0.3333496370195085</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BY2">
-        <v>4.333317103779835</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="BZ2">
-        <v>0.3333729779178595</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CA2">
-        <v>2.331684757910228</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CB2">
-        <v>6.334944830592263</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CC2">
-        <v>0.3333831355975463</v>
+        <v>0.3335250260924897</v>
       </c>
       <c r="CD2">
-        <v>0.3334079897170297</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CE2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CF2">
-        <v>0.3334413059454167</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CG2">
-        <v>2.333316518485862</v>
+        <v>1.40410263894763</v>
       </c>
       <c r="CH2">
-        <v>2.306802716524732</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="CI2">
-        <v>0.3334112768338947</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="CJ2">
-        <v>3.333316902606013</v>
+        <v>1.814922689797199</v>
       </c>
       <c r="CK2">
-        <v>0.3334130875871059</v>
+        <v>0.3352355218558847</v>
       </c>
       <c r="CL2">
-        <v>3.333316902606013</v>
+        <v>3.849956458361662</v>
       </c>
       <c r="CM2">
-        <v>0.3333765850949164</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CN2">
-        <v>0.3333979154458416</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CO2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CP2">
-        <v>0.3333431307676085</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CQ2">
-        <v>0.3334436114878894</v>
+        <v>1.278604488632971</v>
       </c>
       <c r="CR2">
-        <v>0.3333609194089488</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CS2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CT2">
-        <v>0.3334521012801926</v>
+        <v>160.0031177723624</v>
       </c>
       <c r="CU2">
-        <v>0.333407116588832</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CV2">
-        <v>0.3333496370195085</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CW2">
-        <v>0.3333432639754956</v>
+        <v>408.4802616645736</v>
       </c>
       <c r="CX2">
-        <v>0.333396439183289</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CY2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="CZ2">
-        <v>2.333316518485862</v>
+        <v>149.1311545639115</v>
       </c>
       <c r="DA2">
-        <v>2.333316518485862</v>
+        <v>0.3852515607940168</v>
       </c>
       <c r="DB2">
-        <v>0.33334315966985</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DC2">
-        <v>1.327987873878384</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DD2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DE2">
-        <v>0.3334436971586232</v>
+        <v>0.3335250260924897</v>
       </c>
       <c r="DF2">
-        <v>2.32360894030173</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DG2">
-        <v>0.3333490918637105</v>
+        <v>65.72267713617811</v>
       </c>
       <c r="DH2">
-        <v>0.3333604699082203</v>
+        <v>0.5796391678260762</v>
       </c>
       <c r="DI2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DJ2">
-        <v>0.3333979154458416</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DK2">
-        <v>2.333316518485862</v>
+        <v>145.0057188384029</v>
       </c>
       <c r="DL2">
-        <v>6.343303812674149</v>
+        <v>4.174069348029974</v>
       </c>
       <c r="DM2">
-        <v>2.336523825022319</v>
+        <v>0.3387074604852167</v>
       </c>
       <c r="DN2">
-        <v>0.3334242603912386</v>
+        <v>1.302096135225512</v>
       </c>
       <c r="DO2">
-        <v>9.33331745057505</v>
+        <v>0.3335250260924897</v>
       </c>
       <c r="DP2">
-        <v>0.3334800735033241</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DQ2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DR2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DS2">
-        <v>0.3333830680021173</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DT2">
-        <v>0.3334282645928111</v>
+        <v>5.411205870871896</v>
       </c>
       <c r="DU2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DV2">
-        <v>6.351767205352795</v>
+        <v>1.306502649829177</v>
       </c>
       <c r="DW2">
-        <v>2.333316518485862</v>
+        <v>0.3696991712846185</v>
       </c>
       <c r="DX2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="DY2">
-        <v>12.337433304157</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="DZ2">
-        <v>21.33800120225408</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EA2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EB2">
-        <v>2.333316518485862</v>
+        <v>0.3703324063192899</v>
       </c>
       <c r="EC2">
-        <v>0.3334260938951384</v>
+        <v>0.4027369101155956</v>
       </c>
       <c r="ED2">
-        <v>5.331257128184037</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EE2">
-        <v>0.333396439183289</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EF2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EG2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EH2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EI2">
-        <v>4.333317103779835</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EJ2">
-        <v>8.351354249455859</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EK2">
-        <v>5.333317227084118</v>
+        <v>0.3335235650256861</v>
       </c>
       <c r="EL2">
-        <v>2.333316518485862</v>
+        <v>28.98457541270628</v>
       </c>
       <c r="EM2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EN2">
-        <v>0.3334130875871059</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EO2">
-        <v>1.318583408175326</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EP2">
-        <v>0.3333979154458416</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EQ2">
-        <v>0.3334757621972266</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="ER2">
-        <v>2.333316518485862</v>
+        <v>35.07456624886677</v>
       </c>
       <c r="ES2">
-        <v>1.333086194335095</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="ET2">
-        <v>0.3334282645928111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EU2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EV2">
-        <v>0.3333988896380918</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="EW2">
-        <v>16.33331757484434</v>
+        <v>0.395844827342875</v>
       </c>
       <c r="EX2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EY2">
-        <v>1.324694607333415</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="EZ2">
-        <v>0.3334375789581858</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FA2">
-        <v>3.333130382364251</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FB2">
-        <v>2.333125630521214</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FC2">
-        <v>1.324273196774982</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FD2">
-        <v>0.3333944688569349</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FE2">
-        <v>0.3333433529878877</v>
+        <v>77.2985965372138</v>
       </c>
       <c r="FF2">
-        <v>0.3333541322763752</v>
+        <v>218.165964573765</v>
       </c>
       <c r="FG2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FH2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FI2">
-        <v>2.333316518485862</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="FJ2">
-        <v>0.3334282645928111</v>
+        <v>31.23431968510001</v>
       </c>
       <c r="FK2">
-        <v>0.3333852312567476</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FL2">
-        <v>0.3333610471635748</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FM2">
-        <v>0.3333433529878877</v>
+        <v>0.3856270467458786</v>
       </c>
       <c r="FN2">
-        <v>0.3333433529878877</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FO2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FP2">
-        <v>2.331051195537102</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FQ2">
-        <v>0.333413533939723</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="FR2">
-        <v>0.3333713067363541</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FS2">
-        <v>0.3334282645928111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FT2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FU2">
-        <v>0.3333724421329111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FV2">
-        <v>0.3333724421329111</v>
+        <v>115.9035590479361</v>
       </c>
       <c r="FW2">
-        <v>0.3333979154458416</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FX2">
-        <v>0.3333600785023003</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FY2">
-        <v>0.3334112768338947</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="FZ2">
-        <v>4.329563882589265</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GA2">
-        <v>0.3334282645928111</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GB2">
-        <v>3.339358208325503</v>
+        <v>0.3719708168013119</v>
       </c>
       <c r="GC2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GD2">
-        <v>0.3333720997580804</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GE2">
-        <v>0.3333434296952911</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GF2">
-        <v>0.3333433529878877</v>
+        <v>0.3505487759709492</v>
       </c>
       <c r="GG2">
-        <v>6.336559812392917</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GH2">
-        <v>0.3333434296952911</v>
+        <v>154.500186519578</v>
       </c>
       <c r="GI2">
-        <v>0.333394270605766</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GJ2">
-        <v>6.307550881187154</v>
+        <v>2.16254691686687</v>
       </c>
       <c r="GK2">
-        <v>0.3333968806722021</v>
+        <v>9.277183529879737</v>
       </c>
       <c r="GL2">
-        <v>2.333316518485862</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GM2">
-        <v>3.333192614446627</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GN2">
-        <v>2.333125630521214</v>
+        <v>0.3335436686505184</v>
       </c>
       <c r="GO2">
-        <v>2.333125630521214</v>
+        <v>0.3343822372739527</v>
       </c>
       <c r="GP2">
-        <v>0.3333979154458416</v>
+        <v>0.3586425627460114</v>
       </c>
       <c r="GQ2">
-        <v>2.333316518485862</v>
+        <v>0.3335319695257105</v>
       </c>
       <c r="GR2">
-        <v>1.297093339448613</v>
+        <v>109.3157631028389</v>
       </c>
       <c r="GS2">
-        <v>0.3333431208553694</v>
+        <v>0.3483922206269796</v>
       </c>
     </row>
     <row r="3" spans="1:201">
@@ -2198,604 +2198,604 @@
         <v>201</v>
       </c>
       <c r="B3">
-        <v>0.3333455084859857</v>
+        <v>0.33669733259923</v>
       </c>
       <c r="C3">
-        <v>2.333275667628097</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="D3">
-        <v>17.33886315817001</v>
+        <v>0.3838522898370667</v>
       </c>
       <c r="E3">
-        <v>0.3333461101475425</v>
+        <v>13.35784721141477</v>
       </c>
       <c r="F3">
-        <v>0.3334423246562749</v>
+        <v>0.3554960262143284</v>
       </c>
       <c r="G3">
-        <v>6.33283462495679</v>
+        <v>1.026430208852259</v>
       </c>
       <c r="H3">
-        <v>0.3333482004254705</v>
+        <v>92.23078943460914</v>
       </c>
       <c r="I3">
-        <v>0.3333461101475425</v>
+        <v>55.29040759346707</v>
       </c>
       <c r="J3">
-        <v>0.3333456654010002</v>
+        <v>30.30931126211629</v>
       </c>
       <c r="K3">
-        <v>0.3333461101475425</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="L3">
-        <v>0.3334255316391525</v>
+        <v>0.364616088846605</v>
       </c>
       <c r="M3">
-        <v>0.3335047880206603</v>
+        <v>3.570278818409044</v>
       </c>
       <c r="N3">
-        <v>0.3334281340605238</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="O3">
-        <v>1.197302261926595</v>
+        <v>0.364616088846605</v>
       </c>
       <c r="P3">
-        <v>1.334871071816666</v>
+        <v>0.3377049345013244</v>
       </c>
       <c r="Q3">
-        <v>0.3333461101475425</v>
+        <v>1.157090209802801</v>
       </c>
       <c r="R3">
-        <v>0.3333456654010002</v>
+        <v>23.10057274786339</v>
       </c>
       <c r="S3">
-        <v>1.332362317539745</v>
+        <v>10.59924775918082</v>
       </c>
       <c r="T3">
-        <v>0.3333481029605295</v>
+        <v>17.62832022748231</v>
       </c>
       <c r="U3">
-        <v>0.3335047880206603</v>
+        <v>13.69283397939195</v>
       </c>
       <c r="V3">
-        <v>1.699928246914387</v>
+        <v>0.4329052113177396</v>
       </c>
       <c r="W3">
-        <v>0.3333692376957338</v>
+        <v>0.3443457021854127</v>
       </c>
       <c r="X3">
-        <v>0.3980054925420482</v>
+        <v>24.4214938537817</v>
       </c>
       <c r="Y3">
-        <v>4.345090309557284</v>
+        <v>0.3688900284400655</v>
       </c>
       <c r="Z3">
-        <v>0.3334291852871109</v>
+        <v>44.231610097245</v>
       </c>
       <c r="AA3">
-        <v>0.3334291852871109</v>
+        <v>616.8549911354008</v>
       </c>
       <c r="AB3">
-        <v>5.333699491903218</v>
+        <v>0.3765681483800301</v>
       </c>
       <c r="AC3">
-        <v>0.3333768652721072</v>
+        <v>63.52177740938086</v>
       </c>
       <c r="AD3">
-        <v>6.33283462495679</v>
+        <v>0.3374032121326228</v>
       </c>
       <c r="AE3">
-        <v>0.3333461101475425</v>
+        <v>2.598182875730446</v>
       </c>
       <c r="AF3">
-        <v>0.3334423246562749</v>
+        <v>0.3372158486026481</v>
       </c>
       <c r="AG3">
-        <v>0.3333482776258923</v>
+        <v>4.955055688527176</v>
       </c>
       <c r="AH3">
-        <v>1.334570465438807</v>
+        <v>14.91147613824878</v>
       </c>
       <c r="AI3">
-        <v>0.3334622475383019</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="AJ3">
-        <v>0.3333461101475425</v>
+        <v>0.415745030568531</v>
       </c>
       <c r="AK3">
-        <v>0.3333461101475425</v>
+        <v>0.3372158486026481</v>
       </c>
       <c r="AL3">
-        <v>0.3333647115175298</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="AM3">
-        <v>0.3333481448575549</v>
+        <v>0.351314570379357</v>
       </c>
       <c r="AN3">
-        <v>0.3334291852871109</v>
+        <v>14.78908282446867</v>
       </c>
       <c r="AO3">
-        <v>5.329513842784656</v>
+        <v>0.3395119273000675</v>
       </c>
       <c r="AP3">
-        <v>0.3333479892783876</v>
+        <v>0.3632784047948632</v>
       </c>
       <c r="AQ3">
-        <v>0.3334255316391525</v>
+        <v>8.043224695078798</v>
       </c>
       <c r="AR3">
-        <v>0.333345818266608</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="AS3">
-        <v>0.3334432209276626</v>
+        <v>0.3728446684206062</v>
       </c>
       <c r="AT3">
-        <v>0.3333456654010002</v>
+        <v>1.360783239791394</v>
       </c>
       <c r="AU3">
-        <v>0.3333455717060249</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="AV3">
-        <v>0.3334255316391525</v>
+        <v>0.3869323081140541</v>
       </c>
       <c r="AW3">
-        <v>0.3334398321158923</v>
+        <v>151.3676952133688</v>
       </c>
       <c r="AX3">
-        <v>0.3333482004254705</v>
+        <v>0.3372836664556328</v>
       </c>
       <c r="AY3">
-        <v>2.333275667628097</v>
+        <v>0.3694795016197241</v>
       </c>
       <c r="AZ3">
-        <v>1.33494896670938</v>
+        <v>0.3379128918530627</v>
       </c>
       <c r="BA3">
-        <v>0.3333455084859857</v>
+        <v>438.623876751548</v>
       </c>
       <c r="BB3">
-        <v>0.3333461101475425</v>
+        <v>0.3371009595971333</v>
       </c>
       <c r="BC3">
-        <v>0.3333606301598746</v>
+        <v>0.3370638837806311</v>
       </c>
       <c r="BD3">
-        <v>0.3333461101475425</v>
+        <v>24.71122393966038</v>
       </c>
       <c r="BE3">
-        <v>1.333044679888722</v>
+        <v>0.3392752951260439</v>
       </c>
       <c r="BF3">
-        <v>0.333345818266608</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="BG3">
-        <v>2.333915598577139</v>
+        <v>0.3412719709692942</v>
       </c>
       <c r="BH3">
-        <v>0.3335047880206603</v>
+        <v>0.3359726739020666</v>
       </c>
       <c r="BI3">
-        <v>0.3334291852871109</v>
+        <v>0.3877935119430744</v>
       </c>
       <c r="BJ3">
-        <v>0.3334269935616274</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="BK3">
-        <v>2.333275667628097</v>
+        <v>0.5795956948893689</v>
       </c>
       <c r="BL3">
-        <v>0.33344732458858</v>
+        <v>10.27391761663951</v>
       </c>
       <c r="BM3">
-        <v>0.3333461101475425</v>
+        <v>0.3521040027663793</v>
       </c>
       <c r="BN3">
-        <v>0.3333461101475425</v>
+        <v>24.7545932341411</v>
       </c>
       <c r="BO3">
-        <v>0.333345818266608</v>
+        <v>0.3372158486026481</v>
       </c>
       <c r="BP3">
-        <v>1.33082993405373</v>
+        <v>73.31476288231067</v>
       </c>
       <c r="BQ3">
-        <v>0.3333480702480021</v>
+        <v>0.3376172215335154</v>
       </c>
       <c r="BR3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BS3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BT3">
-        <v>0.3335047880206603</v>
+        <v>173.0616711278374</v>
       </c>
       <c r="BU3">
-        <v>0.3333602777678577</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="BV3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BW3">
-        <v>0.3333481448575549</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BX3">
-        <v>0.3333575921370532</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BY3">
-        <v>0.3333456654010002</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="BZ3">
-        <v>2.333275667628097</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CA3">
-        <v>0.333369048520008</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CB3">
-        <v>1.332146318053145</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CC3">
-        <v>3.334019117069267</v>
+        <v>0.3371663641538953</v>
       </c>
       <c r="CD3">
-        <v>0.3334377267764667</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CE3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CF3">
-        <v>2.337253346160246</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CG3">
-        <v>0.3333461101475425</v>
+        <v>0.419482772874177</v>
       </c>
       <c r="CH3">
-        <v>4.341292525266359</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="CI3">
-        <v>0.3334423246562749</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="CJ3">
-        <v>0.333345818266608</v>
+        <v>0.367178742215851</v>
       </c>
       <c r="CK3">
-        <v>0.3334273584427078</v>
+        <v>0.3379526427844166</v>
       </c>
       <c r="CL3">
-        <v>0.333345818266608</v>
+        <v>3.984838815919534</v>
       </c>
       <c r="CM3">
-        <v>1.325674083562306</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CN3">
-        <v>0.3334291852871109</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CO3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CP3">
-        <v>0.3333479461687011</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CQ3">
-        <v>1.33494896670938</v>
+        <v>0.3806062978970315</v>
       </c>
       <c r="CR3">
-        <v>1.332423346986774</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CS3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CT3">
-        <v>1.970523240703431</v>
+        <v>163.5996126973944</v>
       </c>
       <c r="CU3">
-        <v>0.333436505502189</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CV3">
-        <v>0.3333575921370532</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CW3">
-        <v>0.3333481448575549</v>
+        <v>246.8459637516005</v>
       </c>
       <c r="CX3">
-        <v>0.3334269935616274</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CY3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="CZ3">
-        <v>0.3333461101475425</v>
+        <v>285.3275569079756</v>
       </c>
       <c r="DA3">
-        <v>0.3333461101475425</v>
+        <v>78.22709408206229</v>
       </c>
       <c r="DB3">
-        <v>0.3333479892783876</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DC3">
-        <v>0.3335074134611166</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DD3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DE3">
-        <v>1.334546511599063</v>
+        <v>0.3371663641538953</v>
       </c>
       <c r="DF3">
-        <v>2.337626196228681</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DG3">
-        <v>8.333309619485011</v>
+        <v>14.38887356954233</v>
       </c>
       <c r="DH3">
-        <v>4.334609934205011</v>
+        <v>0.5250180410656866</v>
       </c>
       <c r="DI3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DJ3">
-        <v>0.3334291852871109</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DK3">
-        <v>0.3333461101475425</v>
+        <v>206.0405031228176</v>
       </c>
       <c r="DL3">
-        <v>3.210527681237485</v>
+        <v>0.343469736323933</v>
       </c>
       <c r="DM3">
-        <v>0.3334336241663711</v>
+        <v>0.3718744612986565</v>
       </c>
       <c r="DN3">
-        <v>0.3334216428164378</v>
+        <v>0.3756280715712931</v>
       </c>
       <c r="DO3">
-        <v>0.3333454018824975</v>
+        <v>0.3371663641538953</v>
       </c>
       <c r="DP3">
-        <v>1.332055777486722</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DQ3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DR3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DS3">
-        <v>0.3777651559484317</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DT3">
-        <v>0.3334255316391525</v>
+        <v>26.38423470672922</v>
       </c>
       <c r="DU3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DV3">
-        <v>1.323976373028778</v>
+        <v>2.042301345791917</v>
       </c>
       <c r="DW3">
-        <v>0.3333461101475425</v>
+        <v>81.44447113317496</v>
       </c>
       <c r="DX3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="DY3">
-        <v>0.3334947614072247</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="DZ3">
-        <v>0.3333719269461788</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EA3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EB3">
-        <v>0.3333461101475425</v>
+        <v>0.3560417532358616</v>
       </c>
       <c r="EC3">
-        <v>0.3334234234900596</v>
+        <v>0.3460883110131214</v>
       </c>
       <c r="ED3">
-        <v>2.335372731765783</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EE3">
-        <v>0.3334269935616274</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EF3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EG3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EH3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EI3">
-        <v>0.3333456654010002</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EJ3">
-        <v>0.3334431853240258</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EK3">
-        <v>0.3333455717060249</v>
+        <v>0.3371360729713861</v>
       </c>
       <c r="EL3">
-        <v>0.3333461101475425</v>
+        <v>44.11122934220435</v>
       </c>
       <c r="EM3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EN3">
-        <v>0.3334273584427078</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EO3">
-        <v>3.345162752778864</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EP3">
-        <v>0.3334291852871109</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EQ3">
-        <v>1.334871071816666</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="ER3">
-        <v>0.3333461101475425</v>
+        <v>0.3761326547826626</v>
       </c>
       <c r="ES3">
-        <v>0.333623856086699</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="ET3">
-        <v>0.3334255316391525</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EU3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EV3">
-        <v>0.333429015706352</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="EW3">
-        <v>0.3333453074543281</v>
+        <v>4.270737194311771</v>
       </c>
       <c r="EX3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EY3">
-        <v>4.341932533081294</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="EZ3">
-        <v>1.333470197429633</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FA3">
-        <v>0.3335008645563978</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FB3">
-        <v>0.3335047880206603</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FC3">
-        <v>0.3334559505954193</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FD3">
-        <v>0.33342406837616</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FE3">
-        <v>0.3333482776258923</v>
+        <v>0.364197859788593</v>
       </c>
       <c r="FF3">
-        <v>0.3333602629720529</v>
+        <v>32.44378856125507</v>
       </c>
       <c r="FG3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FH3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FI3">
-        <v>0.3333461101475425</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="FJ3">
-        <v>0.3334255316391525</v>
+        <v>5.23452202549438</v>
       </c>
       <c r="FK3">
-        <v>1.33059697145298</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FL3">
-        <v>1.332834340735211</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FM3">
-        <v>0.3333482776258923</v>
+        <v>0.3451569945993844</v>
       </c>
       <c r="FN3">
-        <v>0.3333482776258923</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FO3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FP3">
-        <v>0.3334439374266568</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FQ3">
-        <v>0.3334272524273181</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="FR3">
-        <v>5.333278098314763</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FS3">
-        <v>0.3334255316391525</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FT3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FU3">
-        <v>6.33283462495679</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FV3">
-        <v>6.33283462495679</v>
+        <v>63.59061734757285</v>
       </c>
       <c r="FW3">
-        <v>0.3334291852871109</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FX3">
-        <v>11.3372633686254</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FY3">
-        <v>0.3334423246562749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="FZ3">
-        <v>2.334266739232703</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GA3">
-        <v>0.3334255316391525</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GB3">
-        <v>0.3334380232909024</v>
+        <v>0.3644994871392029</v>
       </c>
       <c r="GC3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GD3">
-        <v>9.332838987650749</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GE3">
-        <v>0.3333483920405547</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GF3">
-        <v>0.3333482776258923</v>
+        <v>0.3513935453589253</v>
       </c>
       <c r="GG3">
-        <v>6.357290032611364</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GH3">
-        <v>0.3333483920405547</v>
+        <v>384.5411507227769</v>
       </c>
       <c r="GI3">
-        <v>0.3334112803177068</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GJ3">
-        <v>4.838737369485882</v>
+        <v>0.3737344176563289</v>
       </c>
       <c r="GK3">
-        <v>0.3334223444567389</v>
+        <v>11.52522452324581</v>
       </c>
       <c r="GL3">
-        <v>0.3333461101475425</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GM3">
-        <v>0.3334491264680384</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GN3">
-        <v>0.3335047880206603</v>
+        <v>0.3375543910062493</v>
       </c>
       <c r="GO3">
-        <v>0.3335047880206603</v>
+        <v>0.3376623844516346</v>
       </c>
       <c r="GP3">
-        <v>0.3334291852871109</v>
+        <v>0.3533304531550523</v>
       </c>
       <c r="GQ3">
-        <v>0.3333461101475425</v>
+        <v>0.3373105538209279</v>
       </c>
       <c r="GR3">
-        <v>9.369080827346897</v>
+        <v>0.3485225862537606</v>
       </c>
       <c r="GS3">
-        <v>0.3333479313839156</v>
+        <v>8.022942676043952</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2803,604 +2803,604 @@
         <v>202</v>
       </c>
       <c r="B4">
-        <v>0.3333371812310724</v>
+        <v>7.322901461012611</v>
       </c>
       <c r="C4">
-        <v>0.3333513544539779</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="D4">
-        <v>2.327769859619915</v>
+        <v>10.78815691981796</v>
       </c>
       <c r="E4">
-        <v>0.3333373713665047</v>
+        <v>31.25904453316046</v>
       </c>
       <c r="F4">
-        <v>2.333146398509601</v>
+        <v>47.29555476665748</v>
       </c>
       <c r="G4">
-        <v>0.3337929329102343</v>
+        <v>10.64560272284285</v>
       </c>
       <c r="H4">
-        <v>6.333308498344194</v>
+        <v>39.35780914855644</v>
       </c>
       <c r="I4">
-        <v>0.3333373713665047</v>
+        <v>0.3391578692586245</v>
       </c>
       <c r="J4">
-        <v>0.3333372308190765</v>
+        <v>13.50450040525111</v>
       </c>
       <c r="K4">
-        <v>0.3333373713665047</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="L4">
-        <v>2.333146203767807</v>
+        <v>3.301890939371106</v>
       </c>
       <c r="M4">
-        <v>0.3333695814580332</v>
+        <v>4.093837717719716</v>
       </c>
       <c r="N4">
-        <v>4.333165654703747</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="O4">
-        <v>4.469240013336514</v>
+        <v>3.301890939371106</v>
       </c>
       <c r="P4">
-        <v>1.331653165985796</v>
+        <v>6.31737750559498</v>
       </c>
       <c r="Q4">
-        <v>0.3333373713665047</v>
+        <v>2.491092694688215</v>
       </c>
       <c r="R4">
-        <v>0.3333372308190765</v>
+        <v>13.26605740386233</v>
       </c>
       <c r="S4">
-        <v>2.328598079014786</v>
+        <v>19.04795846703568</v>
       </c>
       <c r="T4">
-        <v>8.333308661152962</v>
+        <v>2.412386449887436</v>
       </c>
       <c r="U4">
-        <v>0.3333695814580332</v>
+        <v>6.558068737063175</v>
       </c>
       <c r="V4">
-        <v>68.9703067825734</v>
+        <v>12.21188374309219</v>
       </c>
       <c r="W4">
-        <v>14.33327107220268</v>
+        <v>4.315818766627006</v>
       </c>
       <c r="X4">
-        <v>37.26859300755741</v>
+        <v>4.043074571976521</v>
       </c>
       <c r="Y4">
-        <v>2.32755861433215</v>
+        <v>0.3815617569963991</v>
       </c>
       <c r="Z4">
-        <v>2.333172899266819</v>
+        <v>3.001071671957781</v>
       </c>
       <c r="AA4">
-        <v>2.333172899266819</v>
+        <v>22.70307636113213</v>
       </c>
       <c r="AB4">
-        <v>7.332941303094947</v>
+        <v>7.945793409629875</v>
       </c>
       <c r="AC4">
-        <v>22.33325753168686</v>
+        <v>16.12072932818113</v>
       </c>
       <c r="AD4">
-        <v>0.3337929329102343</v>
+        <v>2.333280866287152</v>
       </c>
       <c r="AE4">
-        <v>0.3333373713665047</v>
+        <v>6.051791900455858</v>
       </c>
       <c r="AF4">
-        <v>2.333146398509601</v>
+        <v>3.329256740261587</v>
       </c>
       <c r="AG4">
-        <v>5.333308369386002</v>
+        <v>3.701310914735773</v>
       </c>
       <c r="AH4">
-        <v>3.331995726409567</v>
+        <v>7.748937263253548</v>
       </c>
       <c r="AI4">
-        <v>1.33164470608984</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="AJ4">
-        <v>0.3333373713665047</v>
+        <v>13.41030211003553</v>
       </c>
       <c r="AK4">
-        <v>0.3333373713665047</v>
+        <v>3.329256740261587</v>
       </c>
       <c r="AL4">
-        <v>32.33327887650562</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="AM4">
-        <v>7.333308591166734</v>
+        <v>3.289469420743469</v>
       </c>
       <c r="AN4">
-        <v>2.333172899266819</v>
+        <v>8.872501816525679</v>
       </c>
       <c r="AO4">
-        <v>39.33709803447676</v>
+        <v>4.668114989934765</v>
       </c>
       <c r="AP4">
-        <v>13.33330885105155</v>
+        <v>5.238546644410664</v>
       </c>
       <c r="AQ4">
-        <v>2.333146203767807</v>
+        <v>10.59910928707379</v>
       </c>
       <c r="AR4">
-        <v>0.3333372791272909</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="AS4">
-        <v>1.319825712664604</v>
+        <v>8.282341883042758</v>
       </c>
       <c r="AT4">
-        <v>0.3333372308190765</v>
+        <v>2.269684243359011</v>
       </c>
       <c r="AU4">
-        <v>0.3333372012097697</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="AV4">
-        <v>2.333146203767807</v>
+        <v>0.7609694049229873</v>
       </c>
       <c r="AW4">
-        <v>3.333150673006505</v>
+        <v>28.99490693458182</v>
       </c>
       <c r="AX4">
-        <v>6.333308498344194</v>
+        <v>3.318176641869769</v>
       </c>
       <c r="AY4">
-        <v>0.3333513544539779</v>
+        <v>7.293042999256587</v>
       </c>
       <c r="AZ4">
-        <v>1.331607421802419</v>
+        <v>6.299088386564875</v>
       </c>
       <c r="BA4">
-        <v>0.3333371812310724</v>
+        <v>1.572430046930688</v>
       </c>
       <c r="BB4">
-        <v>0.3333373713665047</v>
+        <v>7.32937717008151</v>
       </c>
       <c r="BC4">
-        <v>4.332538446425254</v>
+        <v>12.3294160365354</v>
       </c>
       <c r="BD4">
-        <v>0.3333373713665047</v>
+        <v>88.89108103186159</v>
       </c>
       <c r="BE4">
-        <v>3.323447500899007</v>
+        <v>4.327241773250681</v>
       </c>
       <c r="BF4">
-        <v>0.3333372791272909</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="BG4">
-        <v>15.33328523940397</v>
+        <v>8.341536201993764</v>
       </c>
       <c r="BH4">
-        <v>0.3333695814580332</v>
+        <v>3.304896133529416</v>
       </c>
       <c r="BI4">
-        <v>2.333172899266819</v>
+        <v>15.34862255018501</v>
       </c>
       <c r="BJ4">
-        <v>3.33317656725486</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="BK4">
-        <v>0.3333513544539779</v>
+        <v>5.965001495468134</v>
       </c>
       <c r="BL4">
-        <v>1.328843058966615</v>
+        <v>6.829743208310449</v>
       </c>
       <c r="BM4">
-        <v>0.3333373713665047</v>
+        <v>3.314418515911632</v>
       </c>
       <c r="BN4">
-        <v>0.3333373713665047</v>
+        <v>17.84479159722506</v>
       </c>
       <c r="BO4">
-        <v>0.3333372791272909</v>
+        <v>3.329256740261587</v>
       </c>
       <c r="BP4">
-        <v>7.341209470245964</v>
+        <v>25.58878746373358</v>
       </c>
       <c r="BQ4">
-        <v>9.333308715797093</v>
+        <v>2.342138309465724</v>
       </c>
       <c r="BR4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BS4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BT4">
-        <v>0.3333695814580332</v>
+        <v>1.779308264912632</v>
       </c>
       <c r="BU4">
-        <v>8.332684147478478</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="BV4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BW4">
-        <v>7.333308591166734</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BX4">
-        <v>8.333292770843222</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BY4">
-        <v>0.3333372308190765</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="BZ4">
-        <v>0.3333513544539779</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CA4">
-        <v>26.33494619356946</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CB4">
-        <v>5.332908851354219</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CC4">
-        <v>1.332597747332882</v>
+        <v>4.329308609753158</v>
       </c>
       <c r="CD4">
-        <v>5.333154283506284</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CE4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CF4">
-        <v>1.32930534789403</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CG4">
-        <v>0.3333373713665047</v>
+        <v>16.17641458817542</v>
       </c>
       <c r="CH4">
-        <v>23.35190475820854</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="CI4">
-        <v>2.333146398509601</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="CJ4">
-        <v>0.3333372791272909</v>
+        <v>4.817898567984542</v>
       </c>
       <c r="CK4">
-        <v>2.333159553969957</v>
+        <v>3.326811835359169</v>
       </c>
       <c r="CL4">
-        <v>0.3333372791272909</v>
+        <v>4.165204725716007</v>
       </c>
       <c r="CM4">
-        <v>41.3409493313425</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CN4">
-        <v>2.333172899266819</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CO4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CP4">
-        <v>17.33330892306348</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CQ4">
-        <v>1.331607421802419</v>
+        <v>2.340789213467394</v>
       </c>
       <c r="CR4">
-        <v>6.334215733603992</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CS4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CT4">
-        <v>11.69602465801609</v>
+        <v>0.3972695302406143</v>
       </c>
       <c r="CU4">
-        <v>8.333156377908761</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CV4">
-        <v>8.333292770843222</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CW4">
-        <v>7.333308591166734</v>
+        <v>85.67377458382325</v>
       </c>
       <c r="CX4">
-        <v>3.33317656725486</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CY4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="CZ4">
-        <v>0.3333373713665047</v>
+        <v>48.54128852811016</v>
       </c>
       <c r="DA4">
-        <v>0.3333373713665047</v>
+        <v>145.3876543571414</v>
       </c>
       <c r="DB4">
-        <v>13.33330885105155</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DC4">
-        <v>9.338504712660187</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DD4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DE4">
-        <v>3.332009791242021</v>
+        <v>4.329308609753158</v>
       </c>
       <c r="DF4">
-        <v>7.338764863469216</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DG4">
-        <v>0.3333412886512178</v>
+        <v>15.88844929427692</v>
       </c>
       <c r="DH4">
-        <v>1.332029595886465</v>
+        <v>29.89534279110512</v>
       </c>
       <c r="DI4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DJ4">
-        <v>2.333172899266819</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DK4">
-        <v>0.3333373713665047</v>
+        <v>7.953778038776797</v>
       </c>
       <c r="DL4">
-        <v>6.446168506087999</v>
+        <v>17.48246091564408</v>
       </c>
       <c r="DM4">
-        <v>7.330042550811002</v>
+        <v>9.289418078215052</v>
       </c>
       <c r="DN4">
-        <v>5.333154096792105</v>
+        <v>5.322275793200657</v>
       </c>
       <c r="DO4">
-        <v>0.3333371475423662</v>
+        <v>4.329308609753158</v>
       </c>
       <c r="DP4">
-        <v>8.334464149009669</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DQ4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DR4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DS4">
-        <v>47.2888517760492</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DT4">
-        <v>2.333146203767807</v>
+        <v>10.2045594223962</v>
       </c>
       <c r="DU4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DV4">
-        <v>10.32425642161805</v>
+        <v>9.651196004376031</v>
       </c>
       <c r="DW4">
-        <v>0.3333373713665047</v>
+        <v>25.18582969553838</v>
       </c>
       <c r="DX4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="DY4">
-        <v>14.32907193443547</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="DZ4">
-        <v>2.328626870799428</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EA4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EB4">
-        <v>0.3333373713665047</v>
+        <v>14.27362584044327</v>
       </c>
       <c r="EC4">
-        <v>3.333150482614578</v>
+        <v>61.25117477886946</v>
       </c>
       <c r="ED4">
-        <v>0.3333701400500272</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EE4">
-        <v>3.33317656725486</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EF4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EG4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EH4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EI4">
-        <v>0.3333372308190765</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EJ4">
-        <v>1.315202565219787</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EK4">
-        <v>0.3333372012097697</v>
+        <v>5.329340362002475</v>
       </c>
       <c r="EL4">
-        <v>0.3333373713665047</v>
+        <v>9.904195245086726</v>
       </c>
       <c r="EM4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EN4">
-        <v>2.333159553969957</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EO4">
-        <v>4.33625383904543</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EP4">
-        <v>2.333172899266819</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EQ4">
-        <v>1.331653165985796</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="ER4">
-        <v>0.3333373713665047</v>
+        <v>16.54930109634823</v>
       </c>
       <c r="ES4">
-        <v>2.33328994957788</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="ET4">
-        <v>2.333146203767807</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EU4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EV4">
-        <v>4.333172094655334</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="EW4">
-        <v>0.3333371177012481</v>
+        <v>4.333417978342919</v>
       </c>
       <c r="EX4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EY4">
-        <v>0.3333728595851313</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="EZ4">
-        <v>4.333092223611891</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FA4">
-        <v>0.3333687530792612</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FB4">
-        <v>0.3333695814580332</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FC4">
-        <v>13.34227085262929</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FD4">
-        <v>8.333181462766689</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FE4">
-        <v>5.333308369386002</v>
+        <v>0.3372056029957535</v>
       </c>
       <c r="FF4">
-        <v>13.33328560475136</v>
+        <v>0.3902468649773783</v>
       </c>
       <c r="FG4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FH4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FI4">
-        <v>0.3333373713665047</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="FJ4">
-        <v>2.333146203767807</v>
+        <v>29.53115828940297</v>
       </c>
       <c r="FK4">
-        <v>7.336017797289987</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FL4">
-        <v>4.333804612100925</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FM4">
-        <v>5.333308369386002</v>
+        <v>3.269215958653084</v>
       </c>
       <c r="FN4">
-        <v>5.333308369386002</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FO4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FP4">
-        <v>4.33550486703593</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FQ4">
-        <v>4.333159213632737</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="FR4">
-        <v>0.3333505949488196</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FS4">
-        <v>2.333146203767807</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FT4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FU4">
-        <v>0.3337929329102343</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FV4">
-        <v>0.3337929329102343</v>
+        <v>110.5058236044883</v>
       </c>
       <c r="FW4">
-        <v>2.333172899266819</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FX4">
-        <v>1.329376552872001</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FY4">
-        <v>2.333146398509601</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="FZ4">
-        <v>7.336169378177662</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GA4">
-        <v>2.333146203767807</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GB4">
-        <v>2.327203768383277</v>
+        <v>6.263529696057771</v>
       </c>
       <c r="GC4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GD4">
-        <v>0.3337889125911057</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GE4">
-        <v>4.333308178263935</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GF4">
-        <v>5.333308369386002</v>
+        <v>8.298057678668956</v>
       </c>
       <c r="GG4">
-        <v>6.30615015499535</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GH4">
-        <v>4.333308178263935</v>
+        <v>16.95866275764241</v>
       </c>
       <c r="GI4">
-        <v>4.333194449076307</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GJ4">
-        <v>29.8537117493266</v>
+        <v>10.46371866547436</v>
       </c>
       <c r="GK4">
-        <v>6.333180774870841</v>
+        <v>29.19759194687181</v>
       </c>
       <c r="GL4">
-        <v>0.3333373713665047</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GM4">
-        <v>0.3333582590852455</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GN4">
-        <v>0.3333695814580332</v>
+        <v>1.328901940342732</v>
       </c>
       <c r="GO4">
-        <v>0.3333695814580332</v>
+        <v>3.327955378273912</v>
       </c>
       <c r="GP4">
-        <v>2.333172899266819</v>
+        <v>5.288026984097583</v>
       </c>
       <c r="GQ4">
-        <v>0.3333373713665047</v>
+        <v>2.32915747665289</v>
       </c>
       <c r="GR4">
-        <v>0.3338258332043273</v>
+        <v>0.335714310905678</v>
       </c>
       <c r="GS4">
-        <v>19.3333089477605</v>
+        <v>75.62866510332746</v>
       </c>
     </row>
   </sheetData>

--- a/word_features/季/ENG,2020-4~2020-7,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-4~2020-7,主题_词矩阵.xlsx
@@ -14,603 +14,1203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>accounted</t>
-  </si>
-  <si>
-    <t>achiume</t>
-  </si>
-  <si>
-    <t>african</t>
-  </si>
-  <si>
-    <t>american</t>
-  </si>
-  <si>
-    <t>americans</t>
-  </si>
-  <si>
-    <t>antipandemic</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>asean</t>
-  </si>
-  <si>
-    <t>asian</t>
-  </si>
-  <si>
-    <t>atlantic</t>
-  </si>
-  <si>
-    <t>attacked</t>
-  </si>
-  <si>
-    <t>behaviors</t>
-  </si>
-  <si>
-    <t>blatantly</t>
-  </si>
-  <si>
-    <t>boston</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>breakdown</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>children</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>acceler</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
+  </si>
+  <si>
+    <t>addit</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>advantag</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>agenc</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>ambassador</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>announc</t>
+  </si>
+  <si>
+    <t>anoth</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>battl</t>
+  </si>
+  <si>
+    <t>becaus</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>befor</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bilater</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>bori</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>capac</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>citizens</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>commented</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>criticized</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>deepened</t>
-  </si>
-  <si>
-    <t>deliberately</t>
-  </si>
-  <si>
-    <t>detention</t>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>compani</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>confid</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>countri</t>
+  </si>
+  <si>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>cuomo</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decis</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>defeat</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>despit</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>diagnosi</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>dies</t>
-  </si>
-  <si>
-    <t>discrimination</t>
-  </si>
-  <si>
-    <t>disproportionately</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>divisive</t>
-  </si>
-  <si>
-    <t>elderly</t>
-  </si>
-  <si>
-    <t>equality</t>
-  </si>
-  <si>
-    <t>exacerbated</t>
-  </si>
-  <si>
-    <t>exposed</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>fatality</t>
-  </si>
-  <si>
-    <t>forbes</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>difficulti</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>diplomat</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>diseas</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>distanc</t>
+  </si>
+  <si>
+    <t>domest</t>
+  </si>
+  <si>
+    <t>donald</t>
+  </si>
+  <si>
+    <t>donat</t>
+  </si>
+  <si>
+    <t>dont</t>
+  </si>
+  <si>
+    <t>earli</t>
+  </si>
+  <si>
+    <t>eas</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>effici</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>emerg</t>
+  </si>
+  <si>
+    <t>enabl</t>
+  </si>
+  <si>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>engag</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>especi</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>europ</t>
+  </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>explor</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>extraordinari</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>famili</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gener</t>
+  </si>
+  <si>
+    <t>genom</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>grave</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>governor</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>happen</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>hispanic</t>
-  </si>
-  <si>
-    <t>homeless</t>
+    <t>healthcar</t>
+  </si>
+  <si>
+    <t>highli</t>
+  </si>
+  <si>
+    <t>hopkin</t>
+  </si>
+  <si>
+    <t>hospit</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>hous</t>
+  </si>
+  <si>
+    <t>howev</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>human</t>
   </si>
   <si>
-    <t>immigrant</t>
-  </si>
-  <si>
-    <t>inefficient</t>
-  </si>
-  <si>
-    <t>inequality</t>
-  </si>
-  <si>
-    <t>injustice</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>intolerance</t>
-  </si>
-  <si>
-    <t>irresponsible</t>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
-    <t>layoffs</t>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>ideolog</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>impos</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>increas</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
+    <t>inform</t>
+  </si>
+  <si>
+    <t>infrastructur</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>innov</t>
+  </si>
+  <si>
+    <t>institut</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>isol</t>
+  </si>
+  <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>johnson</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>larg</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>life</t>
   </si>
   <si>
-    <t>longexisting</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>marginalized</t>
-  </si>
-  <si>
-    <t>massacre</t>
-  </si>
-  <si>
-    <t>mdhhs</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>michigans</t>
-  </si>
-  <si>
-    <t>midland</t>
-  </si>
-  <si>
-    <t>migrants</t>
-  </si>
-  <si>
-    <t>mislead</t>
-  </si>
-  <si>
-    <t>misled</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>morales</t>
-  </si>
-  <si>
-    <t>muddled</t>
-  </si>
-  <si>
-    <t>names</t>
-  </si>
-  <si>
-    <t>naming</t>
-  </si>
-  <si>
-    <t>navarro</t>
-  </si>
-  <si>
-    <t>neck</t>
-  </si>
-  <si>
-    <t>newspaper</t>
-  </si>
-  <si>
-    <t>nondiscrimination</t>
-  </si>
-  <si>
-    <t>nsc</t>
-  </si>
-  <si>
-    <t>obligations</t>
-  </si>
-  <si>
-    <t>obliged</t>
-  </si>
-  <si>
-    <t>observed</t>
-  </si>
-  <si>
-    <t>obtains</t>
-  </si>
-  <si>
-    <t>oldage</t>
-  </si>
-  <si>
-    <t>onceconcealed</t>
-  </si>
-  <si>
-    <t>onefifth</t>
-  </si>
-  <si>
-    <t>onethird</t>
-  </si>
-  <si>
-    <t>opinionated</t>
-  </si>
-  <si>
-    <t>opponents</t>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>macroeconom</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>manner</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>materi</t>
+  </si>
+  <si>
+    <t>meanwhil</t>
+  </si>
+  <si>
+    <t>measur</t>
+  </si>
+  <si>
+    <t>mechan</t>
+  </si>
+  <si>
+    <t>medic</t>
+  </si>
+  <si>
+    <t>medicin</t>
+  </si>
+  <si>
+    <t>mediums</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>minist</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>monetari</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>multilater</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>nationwid</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>onli</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>organ</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
-    <t>outlet</t>
-  </si>
-  <si>
-    <t>overcrowded</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>pandemiccontrol</t>
-  </si>
-  <si>
-    <t>paycheck</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>performances</t>
-  </si>
-  <si>
-    <t>philip</t>
-  </si>
-  <si>
-    <t>philosophical</t>
-  </si>
-  <si>
-    <t>polarization</t>
-  </si>
-  <si>
-    <t>polarized</t>
-  </si>
-  <si>
-    <t>political</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>predicting</t>
-  </si>
-  <si>
-    <t>proposition</t>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>pandem</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>popul</t>
+  </si>
+  <si>
+    <t>posit</t>
+  </si>
+  <si>
+    <t>possibl</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>practic</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>prioriti</t>
+  </si>
+  <si>
+    <t>proactiv</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>provid</t>
   </si>
   <si>
     <t>public</t>
   </si>
   <si>
-    <t>racial</t>
-  </si>
-  <si>
-    <t>racism</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>rapporteur</t>
-  </si>
-  <si>
-    <t>ratified</t>
-  </si>
-  <si>
-    <t>ration</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>repatriated</t>
-  </si>
-  <si>
-    <t>repeatedly</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>requesting</t>
-  </si>
-  <si>
-    <t>rescued</t>
-  </si>
-  <si>
-    <t>resist</t>
-  </si>
-  <si>
-    <t>revisited</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>rights</t>
-  </si>
-  <si>
-    <t>rightwing</t>
-  </si>
-  <si>
-    <t>rubbish</t>
-  </si>
-  <si>
-    <t>sameday</t>
-  </si>
-  <si>
-    <t>sank</t>
-  </si>
-  <si>
-    <t>scandals</t>
-  </si>
-  <si>
-    <t>selfinterested</t>
-  </si>
-  <si>
-    <t>shapiro</t>
-  </si>
-  <si>
-    <t>shelters</t>
-  </si>
-  <si>
-    <t>situation</t>
-  </si>
-  <si>
-    <t>slack</t>
-  </si>
-  <si>
-    <t>slacked</t>
-  </si>
-  <si>
-    <t>slackness</t>
-  </si>
-  <si>
-    <t>slept</t>
-  </si>
-  <si>
-    <t>smalland</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>spilled</t>
-  </si>
-  <si>
-    <t>stabbed</t>
-  </si>
-  <si>
-    <t>stateapproved</t>
-  </si>
-  <si>
-    <t>stating</t>
-  </si>
-  <si>
-    <t>statistics</t>
-  </si>
-  <si>
-    <t>stereotyping</t>
-  </si>
-  <si>
-    <t>stigmatized</t>
-  </si>
-  <si>
-    <t>stipulated</t>
-  </si>
-  <si>
-    <t>stipulates</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>subheadline</t>
-  </si>
-  <si>
-    <t>suggestion</t>
+    <t>quickli</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>readi</t>
+  </si>
+  <si>
+    <t>recess</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>reduc</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>relax</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>reopen</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>republican</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>restaur</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>scienc</t>
+  </si>
+  <si>
+    <t>scientif</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>sequenc</t>
+  </si>
+  <si>
+    <t>servic</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>sever</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shortag</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>sinc</t>
+  </si>
+  <si>
+    <t>situat</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>societi</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>stigmat</t>
+  </si>
+  <si>
+    <t>stori</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>structur</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
   <si>
     <t>summit</t>
   </si>
   <si>
+    <t>suppli</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>supremacy</t>
-  </si>
-  <si>
-    <t>tantamount</t>
-  </si>
-  <si>
-    <t>tendayi</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>titanic</t>
-  </si>
-  <si>
-    <t>touchstone</t>
-  </si>
-  <si>
-    <t>tragic</t>
-  </si>
-  <si>
-    <t>trillions</t>
-  </si>
-  <si>
-    <t>twofifths</t>
-  </si>
-  <si>
-    <t>uche</t>
-  </si>
-  <si>
-    <t>unaccompanied</t>
-  </si>
-  <si>
-    <t>unanimously</t>
-  </si>
-  <si>
-    <t>underwent</t>
-  </si>
-  <si>
-    <t>unforgivable</t>
-  </si>
-  <si>
-    <t>unidentified</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>unprecedentedly</t>
-  </si>
-  <si>
-    <t>upsetting</t>
-  </si>
-  <si>
-    <t>vacation</t>
-  </si>
-  <si>
-    <t>venomous</t>
-  </si>
-  <si>
-    <t>viciously</t>
-  </si>
-  <si>
-    <t>victims</t>
-  </si>
-  <si>
-    <t>viewed</t>
-  </si>
-  <si>
-    <t>violated</t>
-  </si>
-  <si>
-    <t>violation</t>
-  </si>
-  <si>
-    <t>violence</t>
-  </si>
-  <si>
-    <t>violently</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>vox</t>
-  </si>
-  <si>
-    <t>warnings</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>whites</t>
-  </si>
-  <si>
-    <t>wields</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>worrisome</t>
-  </si>
-  <si>
-    <t>xenophobia</t>
-  </si>
-  <si>
-    <t>xenophobic</t>
+    <t>surg</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>sympathi</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>tackl</t>
+  </si>
+  <si>
+    <t>talli</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>technolog</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>texa</t>
+  </si>
+  <si>
+    <t>therefor</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>transpar</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>uniti</t>
+  </si>
+  <si>
+    <t>univers</t>
+  </si>
+  <si>
+    <t>unpreced</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>vaccin</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>valuabl</t>
+  </si>
+  <si>
+    <t>variou</t>
+  </si>
+  <si>
+    <t>ventil</t>
+  </si>
+  <si>
+    <t>veri</t>
+  </si>
+  <si>
+    <t>victori</t>
+  </si>
+  <si>
+    <t>videoconfer</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>viru</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>win</t>
   </si>
   <si>
     <t>xi</t>
+  </si>
+  <si>
+    <t>xinhua</t>
   </si>
   <si>
     <t>york</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3404012063875047</v>
+        <v>30.41344370197918</v>
       </c>
       <c r="C2">
-        <v>0.3335319695257105</v>
+        <v>57.29071802050843</v>
       </c>
       <c r="D2">
-        <v>103.8279907903426</v>
+        <v>20.89662584139813</v>
       </c>
       <c r="E2">
-        <v>0.3831082554225207</v>
+        <v>124.2690253089378</v>
       </c>
       <c r="F2">
-        <v>0.3489492071270386</v>
+        <v>293.4034827834411</v>
       </c>
       <c r="G2">
-        <v>9.327967068302112</v>
+        <v>229.0542906290683</v>
       </c>
       <c r="H2">
-        <v>0.4114014168319356</v>
+        <v>96.04973577950746</v>
       </c>
       <c r="I2">
-        <v>0.3704345372726008</v>
+        <v>73.46037841597841</v>
       </c>
       <c r="J2">
-        <v>2.186188332629884</v>
+        <v>65.50159265952665</v>
       </c>
       <c r="K2">
-        <v>0.3335319695257105</v>
+        <v>0.4109405829584914</v>
       </c>
       <c r="L2">
-        <v>0.3334929717814482</v>
+        <v>155.3897734276743</v>
       </c>
       <c r="M2">
-        <v>0.3358834638699038</v>
+        <v>74.15241120484609</v>
       </c>
       <c r="N2">
-        <v>0.3335319695257105</v>
+        <v>349.3542660304325</v>
       </c>
       <c r="O2">
-        <v>0.3334929717814482</v>
+        <v>28.90864020244707</v>
       </c>
       <c r="P2">
-        <v>0.3449175599029053</v>
+        <v>0.3677581617587296</v>
       </c>
       <c r="Q2">
-        <v>0.3518170955071416</v>
+        <v>110.2679794334578</v>
       </c>
       <c r="R2">
-        <v>10.63336984827161</v>
+        <v>489.7345571297498</v>
       </c>
       <c r="S2">
-        <v>0.3527937737817435</v>
+        <v>594.543442275243</v>
       </c>
       <c r="T2">
-        <v>1069.959293322627</v>
+        <v>380.0541473888058</v>
       </c>
       <c r="U2">
-        <v>7.749097283542225</v>
+        <v>167.2656236175069</v>
       </c>
       <c r="V2">
-        <v>0.355211045588245</v>
+        <v>13.13766182529175</v>
       </c>
       <c r="W2">
-        <v>0.3398355311868141</v>
+        <v>50.40681037978385</v>
       </c>
       <c r="X2">
-        <v>166.5354315742392</v>
+        <v>9.005912029400525</v>
       </c>
       <c r="Y2">
-        <v>387.2495482145617</v>
+        <v>512.3946059482013</v>
       </c>
       <c r="Z2">
-        <v>640.7673182307944</v>
+        <v>158.2742538371005</v>
       </c>
       <c r="AA2">
-        <v>430.4419325034648</v>
+        <v>204.5746314392462</v>
       </c>
       <c r="AB2">
-        <v>2.677638441987666</v>
+        <v>71.21884108518056</v>
       </c>
       <c r="AC2">
-        <v>0.3574932624361719</v>
+        <v>536.1867897329408</v>
       </c>
       <c r="AD2">
-        <v>1.329315921578162</v>
+        <v>288.9438770249092</v>
       </c>
       <c r="AE2">
-        <v>0.3500252238119643</v>
+        <v>770.544842602489</v>
       </c>
       <c r="AF2">
-        <v>0.3335274111353037</v>
+        <v>0.3679482867184223</v>
       </c>
       <c r="AG2">
-        <v>0.3436333967355056</v>
+        <v>44.020651487484</v>
       </c>
       <c r="AH2">
-        <v>0.3395865984962642</v>
+        <v>0.3536907783895601</v>
       </c>
       <c r="AI2">
-        <v>0.3335319695257105</v>
+        <v>41.35214880814688</v>
       </c>
       <c r="AJ2">
-        <v>8.173952859393363</v>
+        <v>0.3724187595013564</v>
       </c>
       <c r="AK2">
-        <v>0.3335274111353037</v>
+        <v>87.23774962908905</v>
       </c>
       <c r="AL2">
-        <v>0.3335319695257105</v>
+        <v>118.6705972229606</v>
       </c>
       <c r="AM2">
-        <v>0.3592160088758393</v>
+        <v>31.38037987730914</v>
       </c>
       <c r="AN2">
-        <v>0.3384153590042773</v>
+        <v>371.9724865086661</v>
       </c>
       <c r="AO2">
-        <v>2.992373082763179</v>
+        <v>156.2111681590656</v>
       </c>
       <c r="AP2">
-        <v>2.398174950792147</v>
+        <v>392.0220415869896</v>
       </c>
       <c r="AQ2">
-        <v>0.3576660178455448</v>
+        <v>160.4481952585342</v>
       </c>
       <c r="AR2">
-        <v>0.3335319695257105</v>
+        <v>420.2694776957341</v>
       </c>
       <c r="AS2">
-        <v>0.3448134485353942</v>
+        <v>519.681584963188</v>
       </c>
       <c r="AT2">
-        <v>0.3695325168474188</v>
+        <v>0.4028151988482965</v>
       </c>
       <c r="AU2">
-        <v>0.3335319695257105</v>
+        <v>38.53792449773569</v>
       </c>
       <c r="AV2">
-        <v>587.8520982869609</v>
+        <v>95.37567622133021</v>
       </c>
       <c r="AW2">
-        <v>59.63739785204673</v>
+        <v>229.4784092727769</v>
       </c>
       <c r="AX2">
-        <v>4.344539691672692</v>
+        <v>512.4554036258236</v>
       </c>
       <c r="AY2">
-        <v>0.3374774991226837</v>
+        <v>179.5103134141081</v>
       </c>
       <c r="AZ2">
-        <v>0.3629987215808756</v>
+        <v>666.6236693721856</v>
       </c>
       <c r="BA2">
-        <v>387.8036932015186</v>
+        <v>71.30203306248278</v>
       </c>
       <c r="BB2">
-        <v>0.333521870320909</v>
+        <v>0.3700598901464869</v>
       </c>
       <c r="BC2">
-        <v>0.3335200796835315</v>
+        <v>57.05262142587749</v>
       </c>
       <c r="BD2">
-        <v>22.39769502847538</v>
+        <v>12.75170363121668</v>
       </c>
       <c r="BE2">
-        <v>0.3334829316227823</v>
+        <v>54.30990253135353</v>
       </c>
       <c r="BF2">
-        <v>0.3335319695257105</v>
+        <v>336.923380385595</v>
       </c>
       <c r="BG2">
-        <v>3.317191827034952</v>
+        <v>123.584236320192</v>
       </c>
       <c r="BH2">
-        <v>0.359131192567429</v>
+        <v>0.3876026754272344</v>
       </c>
       <c r="BI2">
-        <v>430.2635839378697</v>
+        <v>297.8907415692626</v>
       </c>
       <c r="BJ2">
-        <v>0.3335319695257105</v>
+        <v>11.07619354993027</v>
       </c>
       <c r="BK2">
-        <v>0.4554028096394976</v>
+        <v>31.15648518060679</v>
       </c>
       <c r="BL2">
-        <v>6.896339175047376</v>
+        <v>453.2600748627743</v>
       </c>
       <c r="BM2">
-        <v>0.3334774813212988</v>
+        <v>541.3263484448067</v>
       </c>
       <c r="BN2">
-        <v>24.4006151686312</v>
+        <v>206.4911312403162</v>
       </c>
       <c r="BO2">
-        <v>0.3335274111353037</v>
+        <v>0.3720804699227062</v>
       </c>
       <c r="BP2">
-        <v>30.0964496539531</v>
+        <v>33.86374325574862</v>
       </c>
       <c r="BQ2">
-        <v>1.320244468998673</v>
+        <v>0.4102922476713651</v>
       </c>
       <c r="BR2">
-        <v>0.3335436686505184</v>
+        <v>64.78824598632502</v>
       </c>
       <c r="BS2">
-        <v>0.3335436686505184</v>
+        <v>891.6174346361049</v>
       </c>
       <c r="BT2">
-        <v>53.15902060724735</v>
+        <v>55.26595326088302</v>
       </c>
       <c r="BU2">
-        <v>0.3335319695257105</v>
+        <v>0.3918250607615874</v>
       </c>
       <c r="BV2">
-        <v>0.3335436686505184</v>
+        <v>157.7029453540343</v>
       </c>
       <c r="BW2">
-        <v>0.3335436686505184</v>
+        <v>192.6516020121616</v>
       </c>
       <c r="BX2">
-        <v>0.3335436686505184</v>
+        <v>78.31426616796944</v>
       </c>
       <c r="BY2">
-        <v>0.3335436686505184</v>
+        <v>288.0689707237624</v>
       </c>
       <c r="BZ2">
-        <v>0.3335436686505184</v>
+        <v>727.7037745804831</v>
       </c>
       <c r="CA2">
-        <v>0.3335436686505184</v>
+        <v>1214.694489265027</v>
       </c>
       <c r="CB2">
-        <v>0.3335436686505184</v>
+        <v>117.1032322514145</v>
       </c>
       <c r="CC2">
-        <v>0.3335250260924897</v>
+        <v>756.4412006821098</v>
       </c>
       <c r="CD2">
-        <v>0.3335436686505184</v>
+        <v>0.3655212331959748</v>
       </c>
       <c r="CE2">
-        <v>0.3335436686505184</v>
+        <v>219.6017313395652</v>
       </c>
       <c r="CF2">
-        <v>0.3335436686505184</v>
+        <v>0.3440908814161878</v>
       </c>
       <c r="CG2">
-        <v>1.40410263894763</v>
+        <v>13.21753412547597</v>
       </c>
       <c r="CH2">
-        <v>0.3335319695257105</v>
+        <v>39.61893723816873</v>
       </c>
       <c r="CI2">
-        <v>0.3335319695257105</v>
+        <v>54.87305630477628</v>
       </c>
       <c r="CJ2">
-        <v>1.814922689797199</v>
+        <v>254.6132236553489</v>
       </c>
       <c r="CK2">
-        <v>0.3352355218558847</v>
+        <v>133.4466845112669</v>
       </c>
       <c r="CL2">
-        <v>3.849956458361662</v>
+        <v>0.4035337871590258</v>
       </c>
       <c r="CM2">
-        <v>0.3335436686505184</v>
+        <v>307.2718261111065</v>
       </c>
       <c r="CN2">
-        <v>0.3335436686505184</v>
+        <v>126.9431322090178</v>
       </c>
       <c r="CO2">
-        <v>0.3335436686505184</v>
+        <v>10.84239854498297</v>
       </c>
       <c r="CP2">
-        <v>0.3335436686505184</v>
+        <v>0.4211707016604472</v>
       </c>
       <c r="CQ2">
-        <v>1.278604488632971</v>
+        <v>0.3552765560064157</v>
       </c>
       <c r="CR2">
-        <v>0.3335436686505184</v>
+        <v>118.0215873779309</v>
       </c>
       <c r="CS2">
-        <v>0.3335436686505184</v>
+        <v>960.0184230938826</v>
       </c>
       <c r="CT2">
-        <v>160.0031177723624</v>
+        <v>25.14288210823947</v>
       </c>
       <c r="CU2">
-        <v>0.3335436686505184</v>
+        <v>762.2523317915607</v>
       </c>
       <c r="CV2">
-        <v>0.3335436686505184</v>
+        <v>59.57377139945118</v>
       </c>
       <c r="CW2">
-        <v>408.4802616645736</v>
+        <v>266.2357397202593</v>
       </c>
       <c r="CX2">
-        <v>0.3335436686505184</v>
+        <v>0.3817050478344153</v>
       </c>
       <c r="CY2">
-        <v>0.3335436686505184</v>
+        <v>267.5744055773534</v>
       </c>
       <c r="CZ2">
-        <v>149.1311545639115</v>
+        <v>378.9321657276693</v>
       </c>
       <c r="DA2">
-        <v>0.3852515607940168</v>
+        <v>337.4023517410733</v>
       </c>
       <c r="DB2">
-        <v>0.3335436686505184</v>
+        <v>149.8524667288546</v>
       </c>
       <c r="DC2">
-        <v>0.3335436686505184</v>
+        <v>255.6407262142126</v>
       </c>
       <c r="DD2">
-        <v>0.3335436686505184</v>
+        <v>0.3905702515041383</v>
       </c>
       <c r="DE2">
-        <v>0.3335250260924897</v>
+        <v>223.5455679027463</v>
       </c>
       <c r="DF2">
-        <v>0.3335436686505184</v>
+        <v>397.8205257504486</v>
       </c>
       <c r="DG2">
-        <v>65.72267713617811</v>
+        <v>0.4581245000092183</v>
       </c>
       <c r="DH2">
-        <v>0.5796391678260762</v>
+        <v>0.3794364633716255</v>
       </c>
       <c r="DI2">
-        <v>0.3335436686505184</v>
+        <v>0.3922919112083912</v>
       </c>
       <c r="DJ2">
-        <v>0.3335436686505184</v>
+        <v>0.3966955668824116</v>
       </c>
       <c r="DK2">
-        <v>145.0057188384029</v>
+        <v>0.3521437965098202</v>
       </c>
       <c r="DL2">
-        <v>4.174069348029974</v>
+        <v>153.9458085511654</v>
       </c>
       <c r="DM2">
-        <v>0.3387074604852167</v>
+        <v>0.3846000518116519</v>
       </c>
       <c r="DN2">
-        <v>1.302096135225512</v>
+        <v>154.1468760837553</v>
       </c>
       <c r="DO2">
-        <v>0.3335250260924897</v>
+        <v>40.70987161978891</v>
       </c>
       <c r="DP2">
-        <v>0.3335436686505184</v>
+        <v>184.0302807829288</v>
       </c>
       <c r="DQ2">
-        <v>0.3335436686505184</v>
+        <v>156.7055164681423</v>
       </c>
       <c r="DR2">
-        <v>0.3335436686505184</v>
+        <v>84.66934576458836</v>
       </c>
       <c r="DS2">
-        <v>0.3335436686505184</v>
+        <v>6.990540335913696</v>
       </c>
       <c r="DT2">
-        <v>5.411205870871896</v>
+        <v>48.54745389043181</v>
       </c>
       <c r="DU2">
-        <v>0.3335436686505184</v>
+        <v>318.7932891641848</v>
       </c>
       <c r="DV2">
-        <v>1.306502649829177</v>
+        <v>100.5286814803329</v>
       </c>
       <c r="DW2">
-        <v>0.3696991712846185</v>
+        <v>295.0010046125417</v>
       </c>
       <c r="DX2">
-        <v>0.3335436686505184</v>
+        <v>0.3785146915727693</v>
       </c>
       <c r="DY2">
-        <v>0.3335319695257105</v>
+        <v>0.3497635455131242</v>
       </c>
       <c r="DZ2">
-        <v>0.3335436686505184</v>
+        <v>54.59200414933325</v>
       </c>
       <c r="EA2">
-        <v>0.3335436686505184</v>
+        <v>192.4745757937897</v>
       </c>
       <c r="EB2">
-        <v>0.3703324063192899</v>
+        <v>9.691382609373109</v>
       </c>
       <c r="EC2">
-        <v>0.4027369101155956</v>
+        <v>0.3761161255829905</v>
       </c>
       <c r="ED2">
-        <v>0.3335436686505184</v>
+        <v>19.05893198985535</v>
       </c>
       <c r="EE2">
-        <v>0.3335436686505184</v>
+        <v>380.4987171420133</v>
       </c>
       <c r="EF2">
-        <v>0.3335436686505184</v>
+        <v>52.97459185721922</v>
       </c>
       <c r="EG2">
-        <v>0.3335436686505184</v>
+        <v>206.0871808658192</v>
       </c>
       <c r="EH2">
-        <v>0.3335436686505184</v>
+        <v>63.12435152428521</v>
       </c>
       <c r="EI2">
-        <v>0.3335436686505184</v>
+        <v>0.3931807443057608</v>
       </c>
       <c r="EJ2">
-        <v>0.3335436686505184</v>
+        <v>88.31961091528231</v>
       </c>
       <c r="EK2">
-        <v>0.3335235650256861</v>
+        <v>0.3937038024211389</v>
       </c>
       <c r="EL2">
-        <v>28.98457541270628</v>
+        <v>596.2812013331625</v>
       </c>
       <c r="EM2">
-        <v>0.3335436686505184</v>
+        <v>252.476347699601</v>
       </c>
       <c r="EN2">
-        <v>0.3335436686505184</v>
+        <v>78.72703140989954</v>
       </c>
       <c r="EO2">
-        <v>0.3335436686505184</v>
+        <v>0.3601962745584956</v>
       </c>
       <c r="EP2">
-        <v>0.3335436686505184</v>
+        <v>0.3409864781721946</v>
       </c>
       <c r="EQ2">
-        <v>0.3335436686505184</v>
+        <v>0.4023207886446373</v>
       </c>
       <c r="ER2">
-        <v>35.07456624886677</v>
+        <v>0.3890791512246735</v>
       </c>
       <c r="ES2">
-        <v>0.3335436686505184</v>
+        <v>0.342428515740311</v>
       </c>
       <c r="ET2">
-        <v>0.3335436686505184</v>
+        <v>73.96839426379411</v>
       </c>
       <c r="EU2">
-        <v>0.3335436686505184</v>
+        <v>35.56159140037548</v>
       </c>
       <c r="EV2">
-        <v>0.3335319695257105</v>
+        <v>164.3069864542219</v>
       </c>
       <c r="EW2">
-        <v>0.395844827342875</v>
+        <v>0.3881473113606529</v>
       </c>
       <c r="EX2">
-        <v>0.3335436686505184</v>
+        <v>146.5183540877532</v>
       </c>
       <c r="EY2">
-        <v>0.3335436686505184</v>
+        <v>17.5570097642904</v>
       </c>
       <c r="EZ2">
-        <v>0.3335436686505184</v>
+        <v>808.615573854279</v>
       </c>
       <c r="FA2">
-        <v>0.3335436686505184</v>
+        <v>219.2692991941121</v>
       </c>
       <c r="FB2">
-        <v>0.3335436686505184</v>
+        <v>0.3928068192031881</v>
       </c>
       <c r="FC2">
-        <v>0.3335436686505184</v>
+        <v>186.6783242217163</v>
       </c>
       <c r="FD2">
-        <v>0.3335436686505184</v>
+        <v>1214.577721880896</v>
       </c>
       <c r="FE2">
-        <v>77.2985965372138</v>
+        <v>106.9371270653068</v>
       </c>
       <c r="FF2">
-        <v>218.165964573765</v>
+        <v>10.32301589815592</v>
       </c>
       <c r="FG2">
-        <v>0.3335436686505184</v>
+        <v>152.2953303236604</v>
       </c>
       <c r="FH2">
-        <v>0.3335436686505184</v>
+        <v>666.4006626904692</v>
       </c>
       <c r="FI2">
-        <v>0.3335319695257105</v>
+        <v>449.4423710515215</v>
       </c>
       <c r="FJ2">
-        <v>31.23431968510001</v>
+        <v>362.5391803778408</v>
       </c>
       <c r="FK2">
-        <v>0.3335436686505184</v>
+        <v>348.7395004215015</v>
       </c>
       <c r="FL2">
-        <v>0.3335436686505184</v>
+        <v>51.74947471531247</v>
       </c>
       <c r="FM2">
-        <v>0.3856270467458786</v>
+        <v>87.73683478300636</v>
       </c>
       <c r="FN2">
-        <v>0.3335436686505184</v>
+        <v>0.3719190174607696</v>
       </c>
       <c r="FO2">
-        <v>0.3335436686505184</v>
+        <v>0.3828825742327936</v>
       </c>
       <c r="FP2">
-        <v>0.3335436686505184</v>
+        <v>60.41898766969524</v>
       </c>
       <c r="FQ2">
-        <v>0.3335319695257105</v>
+        <v>106.8909100580636</v>
       </c>
       <c r="FR2">
-        <v>0.3335436686505184</v>
+        <v>279.8023927202378</v>
       </c>
       <c r="FS2">
-        <v>0.3335436686505184</v>
+        <v>235.4013185660479</v>
       </c>
       <c r="FT2">
-        <v>0.3335436686505184</v>
+        <v>49.80841409292184</v>
       </c>
       <c r="FU2">
-        <v>0.3335436686505184</v>
+        <v>436.0460394606431</v>
       </c>
       <c r="FV2">
-        <v>115.9035590479361</v>
+        <v>0.3972345243265162</v>
       </c>
       <c r="FW2">
-        <v>0.3335436686505184</v>
+        <v>1105.614727050697</v>
       </c>
       <c r="FX2">
-        <v>0.3335436686505184</v>
+        <v>131.1454135809066</v>
       </c>
       <c r="FY2">
-        <v>0.3335436686505184</v>
+        <v>0.3798068631772188</v>
       </c>
       <c r="FZ2">
-        <v>0.3335436686505184</v>
+        <v>127.1874933422027</v>
       </c>
       <c r="GA2">
-        <v>0.3335436686505184</v>
+        <v>0.3517860034370803</v>
       </c>
       <c r="GB2">
-        <v>0.3719708168013119</v>
+        <v>193.8319885028609</v>
       </c>
       <c r="GC2">
-        <v>0.3335436686505184</v>
+        <v>0.3560718262030456</v>
       </c>
       <c r="GD2">
-        <v>0.3335436686505184</v>
+        <v>171.0795140468658</v>
       </c>
       <c r="GE2">
-        <v>0.3335436686505184</v>
+        <v>0.357057912326866</v>
       </c>
       <c r="GF2">
-        <v>0.3505487759709492</v>
+        <v>273.6651080462792</v>
       </c>
       <c r="GG2">
-        <v>0.3335436686505184</v>
+        <v>311.7052898468173</v>
       </c>
       <c r="GH2">
-        <v>154.500186519578</v>
+        <v>0.3391014943879129</v>
       </c>
       <c r="GI2">
-        <v>0.3335436686505184</v>
+        <v>203.3009618052974</v>
       </c>
       <c r="GJ2">
-        <v>2.16254691686687</v>
+        <v>98.23272458506618</v>
       </c>
       <c r="GK2">
-        <v>9.277183529879737</v>
+        <v>0.3712516989078505</v>
       </c>
       <c r="GL2">
-        <v>0.3335436686505184</v>
+        <v>0.3613049580187441</v>
       </c>
       <c r="GM2">
-        <v>0.3335436686505184</v>
+        <v>95.40037065169854</v>
       </c>
       <c r="GN2">
-        <v>0.3335436686505184</v>
+        <v>21.8412756969857</v>
       </c>
       <c r="GO2">
-        <v>0.3343822372739527</v>
+        <v>84.84249780826488</v>
       </c>
       <c r="GP2">
-        <v>0.3586425627460114</v>
+        <v>257.0917502404392</v>
       </c>
       <c r="GQ2">
-        <v>0.3335319695257105</v>
+        <v>213.6694112235323</v>
       </c>
       <c r="GR2">
-        <v>109.3157631028389</v>
+        <v>119.4264456196956</v>
       </c>
       <c r="GS2">
-        <v>0.3483922206269796</v>
+        <v>0.3805587166559364</v>
+      </c>
+      <c r="GT2">
+        <v>154.4399176338141</v>
+      </c>
+      <c r="GU2">
+        <v>322.0264776439886</v>
+      </c>
+      <c r="GV2">
+        <v>280.9668045030116</v>
+      </c>
+      <c r="GW2">
+        <v>283.7252074064997</v>
+      </c>
+      <c r="GX2">
+        <v>442.0214505228274</v>
+      </c>
+      <c r="GY2">
+        <v>652.525944865124</v>
+      </c>
+      <c r="GZ2">
+        <v>29.29678110970982</v>
+      </c>
+      <c r="HA2">
+        <v>0.340209930937514</v>
+      </c>
+      <c r="HB2">
+        <v>244.1835909826438</v>
+      </c>
+      <c r="HC2">
+        <v>596.8888197707818</v>
+      </c>
+      <c r="HD2">
+        <v>0.3381050598389148</v>
+      </c>
+      <c r="HE2">
+        <v>25.11973471879632</v>
+      </c>
+      <c r="HF2">
+        <v>114.8638680235353</v>
+      </c>
+      <c r="HG2">
+        <v>0.3912000533706492</v>
+      </c>
+      <c r="HH2">
+        <v>278.2368365613856</v>
+      </c>
+      <c r="HI2">
+        <v>847.7778376831482</v>
+      </c>
+      <c r="HJ2">
+        <v>0.3732366924241191</v>
+      </c>
+      <c r="HK2">
+        <v>521.3264296205467</v>
+      </c>
+      <c r="HL2">
+        <v>60.86017727164136</v>
+      </c>
+      <c r="HM2">
+        <v>0.3589889208348133</v>
+      </c>
+      <c r="HN2">
+        <v>180.4371799584633</v>
+      </c>
+      <c r="HO2">
+        <v>350.5405061619789</v>
+      </c>
+      <c r="HP2">
+        <v>84.80855259721979</v>
+      </c>
+      <c r="HQ2">
+        <v>615.1456459338218</v>
+      </c>
+      <c r="HR2">
+        <v>0.35757172597534</v>
+      </c>
+      <c r="HS2">
+        <v>728.0138690517608</v>
+      </c>
+      <c r="HT2">
+        <v>325.9171710279719</v>
+      </c>
+      <c r="HU2">
+        <v>0.3420203497927735</v>
+      </c>
+      <c r="HV2">
+        <v>0.353426963561446</v>
+      </c>
+      <c r="HW2">
+        <v>734.0520059220735</v>
+      </c>
+      <c r="HX2">
+        <v>243.3564148664759</v>
+      </c>
+      <c r="HY2">
+        <v>0.4059074622641963</v>
+      </c>
+      <c r="HZ2">
+        <v>323.0869287841205</v>
+      </c>
+      <c r="IA2">
+        <v>593.5426031474022</v>
+      </c>
+      <c r="IB2">
+        <v>2.072160826333472</v>
+      </c>
+      <c r="IC2">
+        <v>317.3751913079748</v>
+      </c>
+      <c r="ID2">
+        <v>933.7558572902022</v>
+      </c>
+      <c r="IE2">
+        <v>0.3591059668939934</v>
+      </c>
+      <c r="IF2">
+        <v>779.5072850734573</v>
+      </c>
+      <c r="IG2">
+        <v>88.82646638300452</v>
+      </c>
+      <c r="IH2">
+        <v>0.3972834152124252</v>
+      </c>
+      <c r="II2">
+        <v>0.3561870404569682</v>
+      </c>
+      <c r="IJ2">
+        <v>416.8076612400051</v>
+      </c>
+      <c r="IK2">
+        <v>441.5729400086665</v>
+      </c>
+      <c r="IL2">
+        <v>0.4171567142795667</v>
+      </c>
+      <c r="IM2">
+        <v>127.6432471186924</v>
+      </c>
+      <c r="IN2">
+        <v>85.67310453229102</v>
+      </c>
+      <c r="IO2">
+        <v>76.82579845367029</v>
+      </c>
+      <c r="IP2">
+        <v>221.4336535386097</v>
+      </c>
+      <c r="IQ2">
+        <v>458.2189772465761</v>
+      </c>
+      <c r="IR2">
+        <v>382.2324962502861</v>
+      </c>
+      <c r="IS2">
+        <v>43.31967409364977</v>
+      </c>
+      <c r="IT2">
+        <v>158.699428523264</v>
+      </c>
+      <c r="IU2">
+        <v>442.4021350291379</v>
+      </c>
+      <c r="IV2">
+        <v>255.0757100789889</v>
+      </c>
+      <c r="IW2">
+        <v>3.490283329944123</v>
+      </c>
+      <c r="IX2">
+        <v>49.32485105058731</v>
+      </c>
+      <c r="IY2">
+        <v>0.3576307197042716</v>
+      </c>
+      <c r="IZ2">
+        <v>89.83571715158085</v>
+      </c>
+      <c r="JA2">
+        <v>0.3919163847274804</v>
+      </c>
+      <c r="JB2">
+        <v>94.38374965367781</v>
+      </c>
+      <c r="JC2">
+        <v>94.60400595822645</v>
+      </c>
+      <c r="JD2">
+        <v>0.3869885768912759</v>
+      </c>
+      <c r="JE2">
+        <v>282.3445894491148</v>
+      </c>
+      <c r="JF2">
+        <v>862.712210340639</v>
+      </c>
+      <c r="JG2">
+        <v>156.561780924609</v>
+      </c>
+      <c r="JH2">
+        <v>14.16979237053125</v>
+      </c>
+      <c r="JI2">
+        <v>325.4709069318722</v>
+      </c>
+      <c r="JJ2">
+        <v>105.0349861621516</v>
+      </c>
+      <c r="JK2">
+        <v>4.845818124141427</v>
+      </c>
+      <c r="JL2">
+        <v>466.8218735504205</v>
+      </c>
+      <c r="JM2">
+        <v>232.5334290579327</v>
+      </c>
+      <c r="JN2">
+        <v>11.78685757179126</v>
+      </c>
+      <c r="JO2">
+        <v>0.3834993543603665</v>
+      </c>
+      <c r="JP2">
+        <v>41.01871109742125</v>
+      </c>
+      <c r="JQ2">
+        <v>348.4389675108706</v>
+      </c>
+      <c r="JR2">
+        <v>105.371066836051</v>
+      </c>
+      <c r="JS2">
+        <v>179.9809648939566</v>
+      </c>
+      <c r="JT2">
+        <v>513.2682591912138</v>
+      </c>
+      <c r="JU2">
+        <v>607.2011093546906</v>
+      </c>
+      <c r="JV2">
+        <v>1073.784495676873</v>
+      </c>
+      <c r="JW2">
+        <v>94.6215257956103</v>
+      </c>
+      <c r="JX2">
+        <v>24.67282088938361</v>
+      </c>
+      <c r="JY2">
+        <v>127.271773236755</v>
+      </c>
+      <c r="JZ2">
+        <v>0.3702902657769436</v>
+      </c>
+      <c r="KA2">
+        <v>1.496387428144071</v>
+      </c>
+      <c r="KB2">
+        <v>122.5783984200786</v>
+      </c>
+      <c r="KC2">
+        <v>109.1253737358688</v>
+      </c>
+      <c r="KD2">
+        <v>376.5566096345628</v>
+      </c>
+      <c r="KE2">
+        <v>277.1885835943842</v>
+      </c>
+      <c r="KF2">
+        <v>454.9463090723917</v>
+      </c>
+      <c r="KG2">
+        <v>345.9136078172685</v>
+      </c>
+      <c r="KH2">
+        <v>598.7263348787819</v>
+      </c>
+      <c r="KI2">
+        <v>301.3868449067162</v>
+      </c>
+      <c r="KJ2">
+        <v>496.0193717388083</v>
+      </c>
+      <c r="KK2">
+        <v>80.24590854948305</v>
+      </c>
+      <c r="KL2">
+        <v>11.99895015810761</v>
+      </c>
+      <c r="KM2">
+        <v>179.9709978874943</v>
+      </c>
+      <c r="KN2">
+        <v>326.7132452574855</v>
+      </c>
+      <c r="KO2">
+        <v>323.7613836565273</v>
+      </c>
+      <c r="KP2">
+        <v>0.3592885859564809</v>
+      </c>
+      <c r="KQ2">
+        <v>99.71149478183034</v>
+      </c>
+      <c r="KR2">
+        <v>472.9620990312083</v>
+      </c>
+      <c r="KS2">
+        <v>68.50692780821051</v>
+      </c>
+      <c r="KT2">
+        <v>62.45099803775573</v>
+      </c>
+      <c r="KU2">
+        <v>59.40914307763262</v>
+      </c>
+      <c r="KV2">
+        <v>144.9207503976964</v>
+      </c>
+      <c r="KW2">
+        <v>78.83737962936344</v>
+      </c>
+      <c r="KX2">
+        <v>0.3888264084069676</v>
+      </c>
+      <c r="KY2">
+        <v>345.9397055855323</v>
+      </c>
+      <c r="KZ2">
+        <v>361.2168465505652</v>
+      </c>
+      <c r="LA2">
+        <v>387.873492693368</v>
+      </c>
+      <c r="LB2">
+        <v>36.37727001263478</v>
+      </c>
+      <c r="LC2">
+        <v>45.90399454071164</v>
+      </c>
+      <c r="LD2">
+        <v>63.97623013356822</v>
+      </c>
+      <c r="LE2">
+        <v>765.4036248214218</v>
+      </c>
+      <c r="LF2">
+        <v>348.2667328621214</v>
+      </c>
+      <c r="LG2">
+        <v>707.9120814221658</v>
+      </c>
+      <c r="LH2">
+        <v>27.67928483176554</v>
+      </c>
+      <c r="LI2">
+        <v>0.3635277602823326</v>
+      </c>
+      <c r="LJ2">
+        <v>0.4022851812058165</v>
+      </c>
+      <c r="LK2">
+        <v>138.282581853539</v>
+      </c>
+      <c r="LL2">
+        <v>0.3619674562875231</v>
+      </c>
+      <c r="LM2">
+        <v>736.2593169967266</v>
+      </c>
+      <c r="LN2">
+        <v>0.3767333424001223</v>
+      </c>
+      <c r="LO2">
+        <v>728.769914232961</v>
+      </c>
+      <c r="LP2">
+        <v>488.269715811473</v>
+      </c>
+      <c r="LQ2">
+        <v>220.626969692897</v>
+      </c>
+      <c r="LR2">
+        <v>0.3529484526794631</v>
+      </c>
+      <c r="LS2">
+        <v>266.7067302403713</v>
+      </c>
+      <c r="LT2">
+        <v>0.3651969471028901</v>
+      </c>
+      <c r="LU2">
+        <v>75.18305336107508</v>
+      </c>
+      <c r="LV2">
+        <v>305.2375231806432</v>
+      </c>
+      <c r="LW2">
+        <v>0.3720940003801861</v>
+      </c>
+      <c r="LX2">
+        <v>0.3959880284323056</v>
+      </c>
+      <c r="LY2">
+        <v>30.59881710969144</v>
+      </c>
+      <c r="LZ2">
+        <v>0.4205544457285418</v>
+      </c>
+      <c r="MA2">
+        <v>126.8600111577009</v>
+      </c>
+      <c r="MB2">
+        <v>0.3533755333918492</v>
+      </c>
+      <c r="MC2">
+        <v>52.22457478301708</v>
+      </c>
+      <c r="MD2">
+        <v>184.7893321131744</v>
+      </c>
+      <c r="ME2">
+        <v>208.2945331611924</v>
+      </c>
+      <c r="MF2">
+        <v>17.41700262248568</v>
+      </c>
+      <c r="MG2">
+        <v>0.3448271006066908</v>
+      </c>
+      <c r="MH2">
+        <v>185.238741398185</v>
+      </c>
+      <c r="MI2">
+        <v>20.88528855122295</v>
+      </c>
+      <c r="MJ2">
+        <v>160.2918535695412</v>
+      </c>
+      <c r="MK2">
+        <v>0.3580229946497894</v>
+      </c>
+      <c r="ML2">
+        <v>66.84739186307496</v>
+      </c>
+      <c r="MM2">
+        <v>0.3767008804146834</v>
+      </c>
+      <c r="MN2">
+        <v>108.1194202304478</v>
+      </c>
+      <c r="MO2">
+        <v>877.0938505112354</v>
+      </c>
+      <c r="MP2">
+        <v>136.287471457254</v>
+      </c>
+      <c r="MQ2">
+        <v>22.22821742441483</v>
+      </c>
+      <c r="MR2">
+        <v>989.061768217722</v>
+      </c>
+      <c r="MS2">
+        <v>72.15679226755202</v>
+      </c>
+      <c r="MT2">
+        <v>882.4934002195146</v>
+      </c>
+      <c r="MU2">
+        <v>113.6292947905669</v>
+      </c>
+      <c r="MV2">
+        <v>561.0850803392793</v>
+      </c>
+      <c r="MW2">
+        <v>322.997288710145</v>
+      </c>
+      <c r="MX2">
+        <v>231.4723433737838</v>
+      </c>
+      <c r="MY2">
+        <v>13.36765165140456</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3798935258023113</v>
+      </c>
+      <c r="NA2">
+        <v>0.3897319696902714</v>
+      </c>
+      <c r="NB2">
+        <v>211.1390114880839</v>
+      </c>
+      <c r="NC2">
+        <v>254.3397712865321</v>
+      </c>
+      <c r="ND2">
+        <v>294.1548192862497</v>
+      </c>
+      <c r="NE2">
+        <v>18.81062733415134</v>
+      </c>
+      <c r="NF2">
+        <v>196.7561660737978</v>
+      </c>
+      <c r="NG2">
+        <v>113.8077613532651</v>
+      </c>
+      <c r="NH2">
+        <v>559.2988197548051</v>
+      </c>
+      <c r="NI2">
+        <v>2.374114024749338</v>
+      </c>
+      <c r="NJ2">
+        <v>507.5247538650919</v>
+      </c>
+      <c r="NK2">
+        <v>0.9317744018070848</v>
+      </c>
+      <c r="NL2">
+        <v>0.3464651359011113</v>
+      </c>
+      <c r="NM2">
+        <v>26.34129144338699</v>
+      </c>
+      <c r="NN2">
+        <v>217.8235727554363</v>
+      </c>
+      <c r="NO2">
+        <v>0.3675689314643493</v>
+      </c>
+      <c r="NP2">
+        <v>0.3835791135898783</v>
+      </c>
+      <c r="NQ2">
+        <v>60.16919484941688</v>
+      </c>
+      <c r="NR2">
+        <v>54.12643852544708</v>
+      </c>
+      <c r="NS2">
+        <v>433.4211065482568</v>
+      </c>
+      <c r="NT2">
+        <v>19.75877843537799</v>
+      </c>
+      <c r="NU2">
+        <v>0.3579552575386771</v>
+      </c>
+      <c r="NV2">
+        <v>86.25744424104879</v>
+      </c>
+      <c r="NW2">
+        <v>926.7560131313431</v>
+      </c>
+      <c r="NX2">
+        <v>0.3443980287491344</v>
+      </c>
+      <c r="NY2">
+        <v>0.3998693524069833</v>
+      </c>
+      <c r="NZ2">
+        <v>1193.981691137976</v>
+      </c>
+      <c r="OA2">
+        <v>47.72261477095608</v>
+      </c>
+      <c r="OB2">
+        <v>325.965128526018</v>
+      </c>
+      <c r="OC2">
+        <v>254.5247589472874</v>
+      </c>
+      <c r="OD2">
+        <v>1300.242703328442</v>
+      </c>
+      <c r="OE2">
+        <v>911.4399960737356</v>
+      </c>
+      <c r="OF2">
+        <v>177.2781155763259</v>
+      </c>
+      <c r="OG2">
+        <v>228.1687010048379</v>
+      </c>
+      <c r="OH2">
+        <v>4.951207895582217</v>
+      </c>
+      <c r="OI2">
+        <v>0.3411054483476362</v>
+      </c>
+      <c r="OJ2">
+        <v>266.7664632158466</v>
+      </c>
+      <c r="OK2">
+        <v>297.2959518052969</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.33669733259923</v>
+        <v>125.0544274502643</v>
       </c>
       <c r="C3">
-        <v>0.3373105538209279</v>
+        <v>106.1502937399299</v>
       </c>
       <c r="D3">
-        <v>0.3838522898370667</v>
+        <v>127.485241661368</v>
       </c>
       <c r="E3">
-        <v>13.35784721141477</v>
+        <v>54.04125359797295</v>
       </c>
       <c r="F3">
-        <v>0.3554960262143284</v>
+        <v>283.5790467260883</v>
       </c>
       <c r="G3">
-        <v>1.026430208852259</v>
+        <v>248.181290304398</v>
       </c>
       <c r="H3">
-        <v>92.23078943460914</v>
+        <v>45.69969748407078</v>
       </c>
       <c r="I3">
-        <v>55.29040759346707</v>
+        <v>133.4543840291724</v>
       </c>
       <c r="J3">
-        <v>30.30931126211629</v>
+        <v>137.2851103742276</v>
       </c>
       <c r="K3">
-        <v>0.3373105538209279</v>
+        <v>102.9757840708785</v>
       </c>
       <c r="L3">
-        <v>0.364616088846605</v>
+        <v>158.5996325276536</v>
       </c>
       <c r="M3">
-        <v>3.570278818409044</v>
+        <v>37.01627467236696</v>
       </c>
       <c r="N3">
-        <v>0.3373105538209279</v>
+        <v>54.48589640849227</v>
       </c>
       <c r="O3">
-        <v>0.364616088846605</v>
+        <v>27.49542063827086</v>
       </c>
       <c r="P3">
-        <v>0.3377049345013244</v>
+        <v>0.3575154875451887</v>
       </c>
       <c r="Q3">
-        <v>1.157090209802801</v>
+        <v>0.368616819735995</v>
       </c>
       <c r="R3">
-        <v>23.10057274786339</v>
+        <v>81.07661271685289</v>
       </c>
       <c r="S3">
-        <v>10.59924775918082</v>
+        <v>90.90160152085207</v>
       </c>
       <c r="T3">
-        <v>17.62832022748231</v>
+        <v>109.7599229443507</v>
       </c>
       <c r="U3">
-        <v>13.69283397939195</v>
+        <v>38.63185718073967</v>
       </c>
       <c r="V3">
-        <v>0.4329052113177396</v>
+        <v>18.4223138610243</v>
       </c>
       <c r="W3">
-        <v>0.3443457021854127</v>
+        <v>101.1582687043482</v>
       </c>
       <c r="X3">
-        <v>24.4214938537817</v>
+        <v>117.3172139714645</v>
       </c>
       <c r="Y3">
-        <v>0.3688900284400655</v>
+        <v>203.9630647435194</v>
       </c>
       <c r="Z3">
-        <v>44.231610097245</v>
+        <v>0.3684238121580631</v>
       </c>
       <c r="AA3">
-        <v>616.8549911354008</v>
+        <v>206.7788680193324</v>
       </c>
       <c r="AB3">
-        <v>0.3765681483800301</v>
+        <v>29.04064482056161</v>
       </c>
       <c r="AC3">
-        <v>63.52177740938086</v>
+        <v>115.2141763554246</v>
       </c>
       <c r="AD3">
-        <v>0.3374032121326228</v>
+        <v>227.7845985875803</v>
       </c>
       <c r="AE3">
-        <v>2.598182875730446</v>
+        <v>144.3026952010143</v>
       </c>
       <c r="AF3">
-        <v>0.3372158486026481</v>
+        <v>53.88646888862187</v>
       </c>
       <c r="AG3">
-        <v>4.955055688527176</v>
+        <v>114.0441486959855</v>
       </c>
       <c r="AH3">
-        <v>14.91147613824878</v>
+        <v>0.3750277174509299</v>
       </c>
       <c r="AI3">
-        <v>0.3373105538209279</v>
+        <v>374.2869509339648</v>
       </c>
       <c r="AJ3">
-        <v>0.415745030568531</v>
+        <v>275.4485659474516</v>
       </c>
       <c r="AK3">
-        <v>0.3372158486026481</v>
+        <v>0.3464349231064696</v>
       </c>
       <c r="AL3">
-        <v>0.3373105538209279</v>
+        <v>186.052845093449</v>
       </c>
       <c r="AM3">
-        <v>0.351314570379357</v>
+        <v>74.89500063695252</v>
       </c>
       <c r="AN3">
-        <v>14.78908282446867</v>
+        <v>537.4110804571721</v>
       </c>
       <c r="AO3">
-        <v>0.3395119273000675</v>
+        <v>0.3786500042012719</v>
       </c>
       <c r="AP3">
-        <v>0.3632784047948632</v>
+        <v>72.26631494005645</v>
       </c>
       <c r="AQ3">
-        <v>8.043224695078798</v>
+        <v>237.5736617514618</v>
       </c>
       <c r="AR3">
-        <v>0.3373105538209279</v>
+        <v>12.74844349112811</v>
       </c>
       <c r="AS3">
-        <v>0.3728446684206062</v>
+        <v>153.9512305869728</v>
       </c>
       <c r="AT3">
-        <v>1.360783239791394</v>
+        <v>359.2055008273454</v>
       </c>
       <c r="AU3">
-        <v>0.3373105538209279</v>
+        <v>91.99695544622992</v>
       </c>
       <c r="AV3">
-        <v>0.3869323081140541</v>
+        <v>177.5723499358278</v>
       </c>
       <c r="AW3">
-        <v>151.3676952133688</v>
+        <v>215.0139099306644</v>
       </c>
       <c r="AX3">
-        <v>0.3372836664556328</v>
+        <v>727.9362514698221</v>
       </c>
       <c r="AY3">
-        <v>0.3694795016197241</v>
+        <v>411.328671904432</v>
       </c>
       <c r="AZ3">
-        <v>0.3379128918530627</v>
+        <v>112.9388982526215</v>
       </c>
       <c r="BA3">
-        <v>438.623876751548</v>
+        <v>0.3417938768593073</v>
       </c>
       <c r="BB3">
-        <v>0.3371009595971333</v>
+        <v>19.65578577821607</v>
       </c>
       <c r="BC3">
-        <v>0.3370638837806311</v>
+        <v>0.4031126246454692</v>
       </c>
       <c r="BD3">
-        <v>24.71122393966038</v>
+        <v>74.75668698561388</v>
       </c>
       <c r="BE3">
-        <v>0.3392752951260439</v>
+        <v>0.3982891722535853</v>
       </c>
       <c r="BF3">
-        <v>0.3373105538209279</v>
+        <v>118.4350711301241</v>
       </c>
       <c r="BG3">
-        <v>0.3412719709692942</v>
+        <v>617.1269318320342</v>
       </c>
       <c r="BH3">
-        <v>0.3359726739020666</v>
+        <v>92.77218517102499</v>
       </c>
       <c r="BI3">
-        <v>0.3877935119430744</v>
+        <v>70.06566591370782</v>
       </c>
       <c r="BJ3">
-        <v>0.3373105538209279</v>
+        <v>4.426679565138637</v>
       </c>
       <c r="BK3">
-        <v>0.5795956948893689</v>
+        <v>142.1019320148788</v>
       </c>
       <c r="BL3">
-        <v>10.27391761663951</v>
+        <v>39.79337521722938</v>
       </c>
       <c r="BM3">
-        <v>0.3521040027663793</v>
+        <v>311.9552182134</v>
       </c>
       <c r="BN3">
-        <v>24.7545932341411</v>
+        <v>90.0359960007552</v>
       </c>
       <c r="BO3">
-        <v>0.3372158486026481</v>
+        <v>94.77950825672833</v>
       </c>
       <c r="BP3">
-        <v>73.31476288231067</v>
+        <v>84.39589213827414</v>
       </c>
       <c r="BQ3">
-        <v>0.3376172215335154</v>
+        <v>46.27965696995658</v>
       </c>
       <c r="BR3">
-        <v>0.3375543910062493</v>
+        <v>230.3555719212268</v>
       </c>
       <c r="BS3">
-        <v>0.3375543910062493</v>
+        <v>449.5192352830598</v>
       </c>
       <c r="BT3">
-        <v>173.0616711278374</v>
+        <v>215.9970941120076</v>
       </c>
       <c r="BU3">
-        <v>0.3373105538209279</v>
+        <v>18.23974274405328</v>
       </c>
       <c r="BV3">
-        <v>0.3375543910062493</v>
+        <v>177.2807403424869</v>
       </c>
       <c r="BW3">
-        <v>0.3375543910062493</v>
+        <v>0.5438566427828221</v>
       </c>
       <c r="BX3">
-        <v>0.3375543910062493</v>
+        <v>0.3411816878218075</v>
       </c>
       <c r="BY3">
-        <v>0.3375543910062493</v>
+        <v>164.4371366420619</v>
       </c>
       <c r="BZ3">
-        <v>0.3375543910062493</v>
+        <v>407.540190886806</v>
       </c>
       <c r="CA3">
-        <v>0.3375543910062493</v>
+        <v>188.9877111268453</v>
       </c>
       <c r="CB3">
-        <v>0.3375543910062493</v>
+        <v>133.5732471946381</v>
       </c>
       <c r="CC3">
-        <v>0.3371663641538953</v>
+        <v>0.3722044917222643</v>
       </c>
       <c r="CD3">
-        <v>0.3375543910062493</v>
+        <v>69.35303705029519</v>
       </c>
       <c r="CE3">
-        <v>0.3375543910062493</v>
+        <v>37.01776660135783</v>
       </c>
       <c r="CF3">
-        <v>0.3375543910062493</v>
+        <v>39.96350885437313</v>
       </c>
       <c r="CG3">
-        <v>0.419482772874177</v>
+        <v>0.3575395983385541</v>
       </c>
       <c r="CH3">
-        <v>0.3373105538209279</v>
+        <v>435.0091407466796</v>
       </c>
       <c r="CI3">
-        <v>0.3373105538209279</v>
+        <v>45.68409545946261</v>
       </c>
       <c r="CJ3">
-        <v>0.367178742215851</v>
+        <v>147.2204774528729</v>
       </c>
       <c r="CK3">
-        <v>0.3379526427844166</v>
+        <v>513.6287972703066</v>
       </c>
       <c r="CL3">
-        <v>3.984838815919534</v>
+        <v>0.3718219083836514</v>
       </c>
       <c r="CM3">
-        <v>0.3375543910062493</v>
+        <v>0.3516069697228631</v>
       </c>
       <c r="CN3">
-        <v>0.3375543910062493</v>
+        <v>78.20903486745446</v>
       </c>
       <c r="CO3">
-        <v>0.3375543910062493</v>
+        <v>105.8470286192252</v>
       </c>
       <c r="CP3">
-        <v>0.3375543910062493</v>
+        <v>197.1750921255272</v>
       </c>
       <c r="CQ3">
-        <v>0.3806062978970315</v>
+        <v>0.3538783658265828</v>
       </c>
       <c r="CR3">
-        <v>0.3375543910062493</v>
+        <v>97.08973184712065</v>
       </c>
       <c r="CS3">
-        <v>0.3375543910062493</v>
+        <v>20.89696314389909</v>
       </c>
       <c r="CT3">
-        <v>163.5996126973944</v>
+        <v>131.7099315194663</v>
       </c>
       <c r="CU3">
-        <v>0.3375543910062493</v>
+        <v>3.376209578441362</v>
       </c>
       <c r="CV3">
-        <v>0.3375543910062493</v>
+        <v>370.7626653346038</v>
       </c>
       <c r="CW3">
-        <v>246.8459637516005</v>
+        <v>0.3506434879117646</v>
       </c>
       <c r="CX3">
-        <v>0.3375543910062493</v>
+        <v>0.3746324538244836</v>
       </c>
       <c r="CY3">
-        <v>0.3375543910062493</v>
+        <v>40.25462485184369</v>
       </c>
       <c r="CZ3">
-        <v>285.3275569079756</v>
+        <v>150.8463543041242</v>
       </c>
       <c r="DA3">
-        <v>78.22709408206229</v>
+        <v>59.20470518452491</v>
       </c>
       <c r="DB3">
-        <v>0.3375543910062493</v>
+        <v>512.1311500027231</v>
       </c>
       <c r="DC3">
-        <v>0.3375543910062493</v>
+        <v>438.4397087963806</v>
       </c>
       <c r="DD3">
-        <v>0.3375543910062493</v>
+        <v>147.5913885913633</v>
       </c>
       <c r="DE3">
-        <v>0.3371663641538953</v>
+        <v>340.1446810659757</v>
       </c>
       <c r="DF3">
-        <v>0.3375543910062493</v>
+        <v>197.7028947095588</v>
       </c>
       <c r="DG3">
-        <v>14.38887356954233</v>
+        <v>135.9041275543556</v>
       </c>
       <c r="DH3">
-        <v>0.5250180410656866</v>
+        <v>77.48993460325454</v>
       </c>
       <c r="DI3">
-        <v>0.3375543910062493</v>
+        <v>51.13480570133485</v>
       </c>
       <c r="DJ3">
-        <v>0.3375543910062493</v>
+        <v>140.4140791659809</v>
       </c>
       <c r="DK3">
-        <v>206.0405031228176</v>
+        <v>317.0787460996555</v>
       </c>
       <c r="DL3">
-        <v>0.343469736323933</v>
+        <v>175.2582851423135</v>
       </c>
       <c r="DM3">
-        <v>0.3718744612986565</v>
+        <v>58.89051865512209</v>
       </c>
       <c r="DN3">
-        <v>0.3756280715712931</v>
+        <v>200.0462505324019</v>
       </c>
       <c r="DO3">
-        <v>0.3371663641538953</v>
+        <v>192.9744633492421</v>
       </c>
       <c r="DP3">
-        <v>0.3375543910062493</v>
+        <v>108.9994281070424</v>
       </c>
       <c r="DQ3">
-        <v>0.3375543910062493</v>
+        <v>76.10511044718332</v>
       </c>
       <c r="DR3">
-        <v>0.3375543910062493</v>
+        <v>105.896814912707</v>
       </c>
       <c r="DS3">
-        <v>0.3375543910062493</v>
+        <v>72.55169640597435</v>
       </c>
       <c r="DT3">
-        <v>26.38423470672922</v>
+        <v>225.8527251168679</v>
       </c>
       <c r="DU3">
-        <v>0.3375543910062493</v>
+        <v>329.8598961110619</v>
       </c>
       <c r="DV3">
-        <v>2.042301345791917</v>
+        <v>119.3173727730057</v>
       </c>
       <c r="DW3">
-        <v>81.44447113317496</v>
+        <v>60.18226968160487</v>
       </c>
       <c r="DX3">
-        <v>0.3375543910062493</v>
+        <v>72.18789171959824</v>
       </c>
       <c r="DY3">
-        <v>0.3373105538209279</v>
+        <v>244.5662638073098</v>
       </c>
       <c r="DZ3">
-        <v>0.3375543910062493</v>
+        <v>52.65469002180693</v>
       </c>
       <c r="EA3">
-        <v>0.3375543910062493</v>
+        <v>30.59615331190379</v>
       </c>
       <c r="EB3">
-        <v>0.3560417532358616</v>
+        <v>7.706918256491102</v>
       </c>
       <c r="EC3">
-        <v>0.3460883110131214</v>
+        <v>114.5922872817822</v>
       </c>
       <c r="ED3">
-        <v>0.3375543910062493</v>
+        <v>100.9709519929998</v>
       </c>
       <c r="EE3">
-        <v>0.3375543910062493</v>
+        <v>36.56958874840753</v>
       </c>
       <c r="EF3">
-        <v>0.3375543910062493</v>
+        <v>53.07100278687536</v>
       </c>
       <c r="EG3">
-        <v>0.3375543910062493</v>
+        <v>67.94629666225583</v>
       </c>
       <c r="EH3">
-        <v>0.3375543910062493</v>
+        <v>336.4165608146026</v>
       </c>
       <c r="EI3">
-        <v>0.3375543910062493</v>
+        <v>155.1127034834685</v>
       </c>
       <c r="EJ3">
-        <v>0.3375543910062493</v>
+        <v>0.3404894315213102</v>
       </c>
       <c r="EK3">
-        <v>0.3371360729713861</v>
+        <v>166.1856606231913</v>
       </c>
       <c r="EL3">
-        <v>44.11122934220435</v>
+        <v>119.4367389662202</v>
       </c>
       <c r="EM3">
-        <v>0.3375543910062493</v>
+        <v>114.0130541852287</v>
       </c>
       <c r="EN3">
-        <v>0.3375543910062493</v>
+        <v>212.0048838091827</v>
       </c>
       <c r="EO3">
-        <v>0.3375543910062493</v>
+        <v>29.01715455507887</v>
       </c>
       <c r="EP3">
-        <v>0.3375543910062493</v>
+        <v>40.98155641456826</v>
       </c>
       <c r="EQ3">
-        <v>0.3375543910062493</v>
+        <v>21.67792083859452</v>
       </c>
       <c r="ER3">
-        <v>0.3761326547826626</v>
+        <v>0.4489225619945529</v>
       </c>
       <c r="ES3">
-        <v>0.3375543910062493</v>
+        <v>0.3457641471189736</v>
       </c>
       <c r="ET3">
-        <v>0.3375543910062493</v>
+        <v>151.3933759472123</v>
       </c>
       <c r="EU3">
-        <v>0.3375543910062493</v>
+        <v>207.162856322563</v>
       </c>
       <c r="EV3">
-        <v>0.3373105538209279</v>
+        <v>305.2135753270565</v>
       </c>
       <c r="EW3">
-        <v>4.270737194311771</v>
+        <v>0.3784975621573368</v>
       </c>
       <c r="EX3">
-        <v>0.3375543910062493</v>
+        <v>362.8814969901377</v>
       </c>
       <c r="EY3">
-        <v>0.3375543910062493</v>
+        <v>119.7446655627107</v>
       </c>
       <c r="EZ3">
-        <v>0.3375543910062493</v>
+        <v>369.7463111389408</v>
       </c>
       <c r="FA3">
-        <v>0.3375543910062493</v>
+        <v>0.3712743527189279</v>
       </c>
       <c r="FB3">
-        <v>0.3375543910062493</v>
+        <v>338.2313084897921</v>
       </c>
       <c r="FC3">
-        <v>0.3375543910062493</v>
+        <v>21.48419448403213</v>
       </c>
       <c r="FD3">
-        <v>0.3375543910062493</v>
+        <v>122.0062165721871</v>
       </c>
       <c r="FE3">
-        <v>0.364197859788593</v>
+        <v>84.54757474109716</v>
       </c>
       <c r="FF3">
-        <v>32.44378856125507</v>
+        <v>56.00381205816291</v>
       </c>
       <c r="FG3">
-        <v>0.3375543910062493</v>
+        <v>0.3419500229720482</v>
       </c>
       <c r="FH3">
-        <v>0.3375543910062493</v>
+        <v>0.410695472156232</v>
       </c>
       <c r="FI3">
-        <v>0.3373105538209279</v>
+        <v>44.14738090727108</v>
       </c>
       <c r="FJ3">
-        <v>5.23452202549438</v>
+        <v>28.16848371035138</v>
       </c>
       <c r="FK3">
-        <v>0.3375543910062493</v>
+        <v>206.1657581655653</v>
       </c>
       <c r="FL3">
-        <v>0.3375543910062493</v>
+        <v>126.5841873731124</v>
       </c>
       <c r="FM3">
-        <v>0.3451569945993844</v>
+        <v>41.82531731459459</v>
       </c>
       <c r="FN3">
-        <v>0.3375543910062493</v>
+        <v>0.3924887567893026</v>
       </c>
       <c r="FO3">
-        <v>0.3375543910062493</v>
+        <v>0.3757043356460036</v>
       </c>
       <c r="FP3">
-        <v>0.3375543910062493</v>
+        <v>304.3883439198539</v>
       </c>
       <c r="FQ3">
-        <v>0.3373105538209279</v>
+        <v>169.7980604225857</v>
       </c>
       <c r="FR3">
-        <v>0.3375543910062493</v>
+        <v>331.2045845796697</v>
       </c>
       <c r="FS3">
-        <v>0.3375543910062493</v>
+        <v>40.4540144483471</v>
       </c>
       <c r="FT3">
-        <v>0.3375543910062493</v>
+        <v>328.6670684924461</v>
       </c>
       <c r="FU3">
-        <v>0.3375543910062493</v>
+        <v>455.6506177666448</v>
       </c>
       <c r="FV3">
-        <v>63.59061734757285</v>
+        <v>619.2334505686631</v>
       </c>
       <c r="FW3">
-        <v>0.3375543910062493</v>
+        <v>14.72658099358622</v>
       </c>
       <c r="FX3">
-        <v>0.3375543910062493</v>
+        <v>218.9998718381258</v>
       </c>
       <c r="FY3">
-        <v>0.3375543910062493</v>
+        <v>163.1901129444767</v>
       </c>
       <c r="FZ3">
-        <v>0.3375543910062493</v>
+        <v>129.4231785703876</v>
       </c>
       <c r="GA3">
-        <v>0.3375543910062493</v>
+        <v>181.1414191687795</v>
       </c>
       <c r="GB3">
-        <v>0.3644994871392029</v>
+        <v>147.8709985308497</v>
       </c>
       <c r="GC3">
-        <v>0.3375543910062493</v>
+        <v>106.5904837206779</v>
       </c>
       <c r="GD3">
-        <v>0.3375543910062493</v>
+        <v>411.3528813932223</v>
       </c>
       <c r="GE3">
-        <v>0.3375543910062493</v>
+        <v>342.4957536942071</v>
       </c>
       <c r="GF3">
-        <v>0.3513935453589253</v>
+        <v>0.3753947332012577</v>
       </c>
       <c r="GG3">
-        <v>0.3375543910062493</v>
+        <v>181.4613676225571</v>
       </c>
       <c r="GH3">
-        <v>384.5411507227769</v>
+        <v>0.3760288609528885</v>
       </c>
       <c r="GI3">
-        <v>0.3375543910062493</v>
+        <v>0.3768917537582779</v>
       </c>
       <c r="GJ3">
-        <v>0.3737344176563289</v>
+        <v>0.3496564774111973</v>
       </c>
       <c r="GK3">
-        <v>11.52522452324581</v>
+        <v>0.4064653896033737</v>
       </c>
       <c r="GL3">
-        <v>0.3375543910062493</v>
+        <v>38.50856260475479</v>
       </c>
       <c r="GM3">
-        <v>0.3375543910062493</v>
+        <v>233.6783821790712</v>
       </c>
       <c r="GN3">
-        <v>0.3375543910062493</v>
+        <v>35.85110876782432</v>
       </c>
       <c r="GO3">
-        <v>0.3376623844516346</v>
+        <v>64.9701119492433</v>
       </c>
       <c r="GP3">
-        <v>0.3533304531550523</v>
+        <v>227.3094310590357</v>
       </c>
       <c r="GQ3">
-        <v>0.3373105538209279</v>
+        <v>220.7977863226501</v>
       </c>
       <c r="GR3">
-        <v>0.3485225862537606</v>
+        <v>35.8513924302233</v>
       </c>
       <c r="GS3">
-        <v>8.022942676043952</v>
+        <v>0.4025125073723837</v>
+      </c>
+      <c r="GT3">
+        <v>58.5253924367471</v>
+      </c>
+      <c r="GU3">
+        <v>197.5867696836937</v>
+      </c>
+      <c r="GV3">
+        <v>100.4667645605644</v>
+      </c>
+      <c r="GW3">
+        <v>45.85580414519826</v>
+      </c>
+      <c r="GX3">
+        <v>98.07471482728093</v>
+      </c>
+      <c r="GY3">
+        <v>72.06196255112346</v>
+      </c>
+      <c r="GZ3">
+        <v>143.8895314891912</v>
+      </c>
+      <c r="HA3">
+        <v>26.93469968784842</v>
+      </c>
+      <c r="HB3">
+        <v>318.7571915951103</v>
+      </c>
+      <c r="HC3">
+        <v>300.3062661667863</v>
+      </c>
+      <c r="HD3">
+        <v>0.3547596470300159</v>
+      </c>
+      <c r="HE3">
+        <v>65.62038968964077</v>
+      </c>
+      <c r="HF3">
+        <v>557.7539209311749</v>
+      </c>
+      <c r="HG3">
+        <v>233.9674953597043</v>
+      </c>
+      <c r="HH3">
+        <v>80.48538005598485</v>
+      </c>
+      <c r="HI3">
+        <v>411.530940477115</v>
+      </c>
+      <c r="HJ3">
+        <v>142.183634138654</v>
+      </c>
+      <c r="HK3">
+        <v>201.9960950147442</v>
+      </c>
+      <c r="HL3">
+        <v>28.06348299978306</v>
+      </c>
+      <c r="HM3">
+        <v>86.28877310098265</v>
+      </c>
+      <c r="HN3">
+        <v>294.9092852181478</v>
+      </c>
+      <c r="HO3">
+        <v>0.3793985869493498</v>
+      </c>
+      <c r="HP3">
+        <v>150.3462721454609</v>
+      </c>
+      <c r="HQ3">
+        <v>27.58226395299246</v>
+      </c>
+      <c r="HR3">
+        <v>94.27009957381689</v>
+      </c>
+      <c r="HS3">
+        <v>337.6000043453637</v>
+      </c>
+      <c r="HT3">
+        <v>122.4406682693398</v>
+      </c>
+      <c r="HU3">
+        <v>0.4308779442550237</v>
+      </c>
+      <c r="HV3">
+        <v>0.3999697286119123</v>
+      </c>
+      <c r="HW3">
+        <v>353.6183874624841</v>
+      </c>
+      <c r="HX3">
+        <v>69.24077978008867</v>
+      </c>
+      <c r="HY3">
+        <v>35.69455023891332</v>
+      </c>
+      <c r="HZ3">
+        <v>179.7167174319205</v>
+      </c>
+      <c r="IA3">
+        <v>225.8118386201875</v>
+      </c>
+      <c r="IB3">
+        <v>216.3464981429829</v>
+      </c>
+      <c r="IC3">
+        <v>114.334657865312</v>
+      </c>
+      <c r="ID3">
+        <v>381.9017322791856</v>
+      </c>
+      <c r="IE3">
+        <v>38.98829322402229</v>
+      </c>
+      <c r="IF3">
+        <v>342.2547399931929</v>
+      </c>
+      <c r="IG3">
+        <v>71.11976010951616</v>
+      </c>
+      <c r="IH3">
+        <v>104.9407291808401</v>
+      </c>
+      <c r="II3">
+        <v>20.82543061452494</v>
+      </c>
+      <c r="IJ3">
+        <v>40.92763263709926</v>
+      </c>
+      <c r="IK3">
+        <v>303.4283178422406</v>
+      </c>
+      <c r="IL3">
+        <v>279.3391904108358</v>
+      </c>
+      <c r="IM3">
+        <v>152.8648836202302</v>
+      </c>
+      <c r="IN3">
+        <v>350.1076500034302</v>
+      </c>
+      <c r="IO3">
+        <v>0.4075827316315243</v>
+      </c>
+      <c r="IP3">
+        <v>68.73667403397305</v>
+      </c>
+      <c r="IQ3">
+        <v>107.906118821164</v>
+      </c>
+      <c r="IR3">
+        <v>124.1626866476345</v>
+      </c>
+      <c r="IS3">
+        <v>92.4085756084386</v>
+      </c>
+      <c r="IT3">
+        <v>84.47001795763433</v>
+      </c>
+      <c r="IU3">
+        <v>40.26276663211257</v>
+      </c>
+      <c r="IV3">
+        <v>0.3881442494463623</v>
+      </c>
+      <c r="IW3">
+        <v>35.62828167742064</v>
+      </c>
+      <c r="IX3">
+        <v>102.6991317873339</v>
+      </c>
+      <c r="IY3">
+        <v>39.31631478360888</v>
+      </c>
+      <c r="IZ3">
+        <v>215.828383147153</v>
+      </c>
+      <c r="JA3">
+        <v>696.5116819825188</v>
+      </c>
+      <c r="JB3">
+        <v>55.73075454400268</v>
+      </c>
+      <c r="JC3">
+        <v>68.28719965368981</v>
+      </c>
+      <c r="JD3">
+        <v>319.8469792364892</v>
+      </c>
+      <c r="JE3">
+        <v>449.9441827890562</v>
+      </c>
+      <c r="JF3">
+        <v>207.2185701766778</v>
+      </c>
+      <c r="JG3">
+        <v>74.8753579780048</v>
+      </c>
+      <c r="JH3">
+        <v>76.84953598885787</v>
+      </c>
+      <c r="JI3">
+        <v>182.0477442259963</v>
+      </c>
+      <c r="JJ3">
+        <v>0.4115957503884605</v>
+      </c>
+      <c r="JK3">
+        <v>107.1465228322684</v>
+      </c>
+      <c r="JL3">
+        <v>58.21919926666931</v>
+      </c>
+      <c r="JM3">
+        <v>286.2788071032941</v>
+      </c>
+      <c r="JN3">
+        <v>131.150164414444</v>
+      </c>
+      <c r="JO3">
+        <v>131.5312702348038</v>
+      </c>
+      <c r="JP3">
+        <v>56.13937909240771</v>
+      </c>
+      <c r="JQ3">
+        <v>319.8251365504116</v>
+      </c>
+      <c r="JR3">
+        <v>171.4519487157481</v>
+      </c>
+      <c r="JS3">
+        <v>8.667647347828915</v>
+      </c>
+      <c r="JT3">
+        <v>168.0720910276008</v>
+      </c>
+      <c r="JU3">
+        <v>34.42148308376517</v>
+      </c>
+      <c r="JV3">
+        <v>207.3311959116863</v>
+      </c>
+      <c r="JW3">
+        <v>69.49179502636535</v>
+      </c>
+      <c r="JX3">
+        <v>25.33167988628374</v>
+      </c>
+      <c r="JY3">
+        <v>0.3505878290754613</v>
+      </c>
+      <c r="JZ3">
+        <v>73.61881971109675</v>
+      </c>
+      <c r="KA3">
+        <v>190.1043587917449</v>
+      </c>
+      <c r="KB3">
+        <v>79.04808829299382</v>
+      </c>
+      <c r="KC3">
+        <v>77.57644230986487</v>
+      </c>
+      <c r="KD3">
+        <v>129.9149444376644</v>
+      </c>
+      <c r="KE3">
+        <v>31.44639808270919</v>
+      </c>
+      <c r="KF3">
+        <v>110.6572953541091</v>
+      </c>
+      <c r="KG3">
+        <v>150.25523180469</v>
+      </c>
+      <c r="KH3">
+        <v>101.8822402135921</v>
+      </c>
+      <c r="KI3">
+        <v>170.550445119413</v>
+      </c>
+      <c r="KJ3">
+        <v>240.4114982541262</v>
+      </c>
+      <c r="KK3">
+        <v>0.3562932893709396</v>
+      </c>
+      <c r="KL3">
+        <v>154.159531002913</v>
+      </c>
+      <c r="KM3">
+        <v>58.66787093428162</v>
+      </c>
+      <c r="KN3">
+        <v>61.35301429322593</v>
+      </c>
+      <c r="KO3">
+        <v>42.0393787276648</v>
+      </c>
+      <c r="KP3">
+        <v>19.7813951163563</v>
+      </c>
+      <c r="KQ3">
+        <v>20.69948393213507</v>
+      </c>
+      <c r="KR3">
+        <v>49.34218748877574</v>
+      </c>
+      <c r="KS3">
+        <v>52.07158096896404</v>
+      </c>
+      <c r="KT3">
+        <v>0.6595960095449886</v>
+      </c>
+      <c r="KU3">
+        <v>401.8004069618926</v>
+      </c>
+      <c r="KV3">
+        <v>206.0755115207387</v>
+      </c>
+      <c r="KW3">
+        <v>17.72528474167226</v>
+      </c>
+      <c r="KX3">
+        <v>0.3583073514754384</v>
+      </c>
+      <c r="KY3">
+        <v>478.5864181841188</v>
+      </c>
+      <c r="KZ3">
+        <v>229.2996626572053</v>
+      </c>
+      <c r="LA3">
+        <v>237.0195139877251</v>
+      </c>
+      <c r="LB3">
+        <v>114.6197143976744</v>
+      </c>
+      <c r="LC3">
+        <v>90.82740479794882</v>
+      </c>
+      <c r="LD3">
+        <v>133.6757049896144</v>
+      </c>
+      <c r="LE3">
+        <v>304.9433495725547</v>
+      </c>
+      <c r="LF3">
+        <v>149.22033038039</v>
+      </c>
+      <c r="LG3">
+        <v>285.4183355372904</v>
+      </c>
+      <c r="LH3">
+        <v>87.6667730999964</v>
+      </c>
+      <c r="LI3">
+        <v>0.3531356570030409</v>
+      </c>
+      <c r="LJ3">
+        <v>98.33770313887463</v>
+      </c>
+      <c r="LK3">
+        <v>0.3646171570086086</v>
+      </c>
+      <c r="LL3">
+        <v>0.3687663377778195</v>
+      </c>
+      <c r="LM3">
+        <v>113.4084679913792</v>
+      </c>
+      <c r="LN3">
+        <v>209.8914296592658</v>
+      </c>
+      <c r="LO3">
+        <v>178.6208057747088</v>
+      </c>
+      <c r="LP3">
+        <v>32.39850025569407</v>
+      </c>
+      <c r="LQ3">
+        <v>166.5359451856368</v>
+      </c>
+      <c r="LR3">
+        <v>0.352036115282539</v>
+      </c>
+      <c r="LS3">
+        <v>0.6957750994526337</v>
+      </c>
+      <c r="LT3">
+        <v>48.14501653806389</v>
+      </c>
+      <c r="LU3">
+        <v>122.4382604558316</v>
+      </c>
+      <c r="LV3">
+        <v>0.3958435204410358</v>
+      </c>
+      <c r="LW3">
+        <v>65.3036151679289</v>
+      </c>
+      <c r="LX3">
+        <v>160.8548725687578</v>
+      </c>
+      <c r="LY3">
+        <v>164.3069195987649</v>
+      </c>
+      <c r="LZ3">
+        <v>99.17631056290655</v>
+      </c>
+      <c r="MA3">
+        <v>70.34567964079153</v>
+      </c>
+      <c r="MB3">
+        <v>0.3771136747691508</v>
+      </c>
+      <c r="MC3">
+        <v>367.6572904676007</v>
+      </c>
+      <c r="MD3">
+        <v>333.4362645350502</v>
+      </c>
+      <c r="ME3">
+        <v>103.3410934911393</v>
+      </c>
+      <c r="MF3">
+        <v>114.1212485284107</v>
+      </c>
+      <c r="MG3">
+        <v>0.3456787948339278</v>
+      </c>
+      <c r="MH3">
+        <v>268.6476244000487</v>
+      </c>
+      <c r="MI3">
+        <v>18.86878573037613</v>
+      </c>
+      <c r="MJ3">
+        <v>0.3540031607867625</v>
+      </c>
+      <c r="MK3">
+        <v>14.63297041414568</v>
+      </c>
+      <c r="ML3">
+        <v>194.9154053964873</v>
+      </c>
+      <c r="MM3">
+        <v>346.9680533965732</v>
+      </c>
+      <c r="MN3">
+        <v>146.8209081533328</v>
+      </c>
+      <c r="MO3">
+        <v>38.37978002639213</v>
+      </c>
+      <c r="MP3">
+        <v>0.349908032774272</v>
+      </c>
+      <c r="MQ3">
+        <v>75.46067822933468</v>
+      </c>
+      <c r="MR3">
+        <v>486.9777285893274</v>
+      </c>
+      <c r="MS3">
+        <v>0.3929166402502178</v>
+      </c>
+      <c r="MT3">
+        <v>332.1297016581415</v>
+      </c>
+      <c r="MU3">
+        <v>9.945329186974767</v>
+      </c>
+      <c r="MV3">
+        <v>33.48302623085839</v>
+      </c>
+      <c r="MW3">
+        <v>0.3681590301781157</v>
+      </c>
+      <c r="MX3">
+        <v>7.540989367290264</v>
+      </c>
+      <c r="MY3">
+        <v>389.7070944366972</v>
+      </c>
+      <c r="MZ3">
+        <v>94.96660307988402</v>
+      </c>
+      <c r="NA3">
+        <v>0.372605681407324</v>
+      </c>
+      <c r="NB3">
+        <v>0.4038055525661604</v>
+      </c>
+      <c r="NC3">
+        <v>54.44835162709465</v>
+      </c>
+      <c r="ND3">
+        <v>0.36948324868024</v>
+      </c>
+      <c r="NE3">
+        <v>1.588319891685299</v>
+      </c>
+      <c r="NF3">
+        <v>0.3768557747087286</v>
+      </c>
+      <c r="NG3">
+        <v>37.80140389305203</v>
+      </c>
+      <c r="NH3">
+        <v>198.6005711880848</v>
+      </c>
+      <c r="NI3">
+        <v>0.3566283062457093</v>
+      </c>
+      <c r="NJ3">
+        <v>77.4498295441456</v>
+      </c>
+      <c r="NK3">
+        <v>97.4738474628697</v>
+      </c>
+      <c r="NL3">
+        <v>0.3709392508694175</v>
+      </c>
+      <c r="NM3">
+        <v>69.06716627355806</v>
+      </c>
+      <c r="NN3">
+        <v>0.3997231970275918</v>
+      </c>
+      <c r="NO3">
+        <v>177.3974779636301</v>
+      </c>
+      <c r="NP3">
+        <v>13.0440942155218</v>
+      </c>
+      <c r="NQ3">
+        <v>129.8014033538976</v>
+      </c>
+      <c r="NR3">
+        <v>60.2844275686254</v>
+      </c>
+      <c r="NS3">
+        <v>81.62413095204644</v>
+      </c>
+      <c r="NT3">
+        <v>0.3779261890777904</v>
+      </c>
+      <c r="NU3">
+        <v>0.3650317697061801</v>
+      </c>
+      <c r="NV3">
+        <v>129.0428042598177</v>
+      </c>
+      <c r="NW3">
+        <v>59.66906374338908</v>
+      </c>
+      <c r="NX3">
+        <v>0.3795219313589435</v>
+      </c>
+      <c r="NY3">
+        <v>91.82054595865596</v>
+      </c>
+      <c r="NZ3">
+        <v>336.1350213142073</v>
+      </c>
+      <c r="OA3">
+        <v>9.947505365958106</v>
+      </c>
+      <c r="OB3">
+        <v>20.9500196043195</v>
+      </c>
+      <c r="OC3">
+        <v>15.06641391980752</v>
+      </c>
+      <c r="OD3">
+        <v>79.38547675335806</v>
+      </c>
+      <c r="OE3">
+        <v>69.99683642182663</v>
+      </c>
+      <c r="OF3">
+        <v>0.3619545825087597</v>
+      </c>
+      <c r="OG3">
+        <v>0.3980911856349818</v>
+      </c>
+      <c r="OH3">
+        <v>0.3723855568102178</v>
+      </c>
+      <c r="OI3">
+        <v>0.3736990586584478</v>
+      </c>
+      <c r="OJ3">
+        <v>0.4122008297051052</v>
+      </c>
+      <c r="OK3">
+        <v>0.3846865225282122</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>7.322901461012611</v>
+        <v>67.53212884771196</v>
       </c>
       <c r="C4">
-        <v>2.32915747665289</v>
+        <v>109.5589882395173</v>
       </c>
       <c r="D4">
-        <v>10.78815691981796</v>
+        <v>200.6181324971892</v>
       </c>
       <c r="E4">
-        <v>31.25904453316046</v>
+        <v>261.6897210930447</v>
       </c>
       <c r="F4">
-        <v>47.29555476665748</v>
+        <v>155.0174704904266</v>
       </c>
       <c r="G4">
-        <v>10.64560272284285</v>
+        <v>70.76441906648957</v>
       </c>
       <c r="H4">
-        <v>39.35780914855644</v>
+        <v>155.2505667363772</v>
       </c>
       <c r="I4">
-        <v>0.3391578692586245</v>
+        <v>131.0852375548044</v>
       </c>
       <c r="J4">
-        <v>13.50450040525111</v>
+        <v>116.2132969662013</v>
       </c>
       <c r="K4">
-        <v>2.32915747665289</v>
+        <v>57.61327534611976</v>
       </c>
       <c r="L4">
-        <v>3.301890939371106</v>
+        <v>128.0105940446275</v>
       </c>
       <c r="M4">
-        <v>4.093837717719716</v>
+        <v>160.8313141227426</v>
       </c>
       <c r="N4">
-        <v>2.32915747665289</v>
+        <v>55.15983756103054</v>
       </c>
       <c r="O4">
-        <v>3.301890939371106</v>
+        <v>227.5959391592373</v>
       </c>
       <c r="P4">
-        <v>6.31737750559498</v>
+        <v>159.2747263506658</v>
       </c>
       <c r="Q4">
-        <v>2.491092694688215</v>
+        <v>0.3634037467736598</v>
       </c>
       <c r="R4">
-        <v>13.26605740386233</v>
+        <v>207.188830153353</v>
       </c>
       <c r="S4">
-        <v>19.04795846703568</v>
+        <v>66.55495620386054</v>
       </c>
       <c r="T4">
-        <v>2.412386449887436</v>
+        <v>125.1859296667985</v>
       </c>
       <c r="U4">
-        <v>6.558068737063175</v>
+        <v>116.1025192017091</v>
       </c>
       <c r="V4">
-        <v>12.21188374309219</v>
+        <v>136.4400243136392</v>
       </c>
       <c r="W4">
-        <v>4.315818766627006</v>
+        <v>60.43492091582355</v>
       </c>
       <c r="X4">
-        <v>4.043074571976521</v>
+        <v>374.6768739990903</v>
       </c>
       <c r="Y4">
-        <v>0.3815617569963991</v>
+        <v>241.6423293082346</v>
       </c>
       <c r="Z4">
-        <v>3.001071671957781</v>
+        <v>0.3573223507102251</v>
       </c>
       <c r="AA4">
-        <v>22.70307636113213</v>
+        <v>136.6465005413771</v>
       </c>
       <c r="AB4">
-        <v>7.945793409629875</v>
+        <v>331.7405140942135</v>
       </c>
       <c r="AC4">
-        <v>16.12072932818113</v>
+        <v>162.5990339115906</v>
       </c>
       <c r="AD4">
-        <v>2.333280866287152</v>
+        <v>154.2715243874667</v>
       </c>
       <c r="AE4">
-        <v>6.051791900455858</v>
+        <v>93.15246219645242</v>
       </c>
       <c r="AF4">
-        <v>3.329256740261587</v>
+        <v>40.74558282462296</v>
       </c>
       <c r="AG4">
-        <v>3.701310914735773</v>
+        <v>112.935199816486</v>
       </c>
       <c r="AH4">
-        <v>7.748937263253548</v>
+        <v>149.2712815041303</v>
       </c>
       <c r="AI4">
-        <v>2.32915747665289</v>
+        <v>85.36090025784422</v>
       </c>
       <c r="AJ4">
-        <v>13.41030211003553</v>
+        <v>51.17901529300952</v>
       </c>
       <c r="AK4">
-        <v>3.329256740261587</v>
+        <v>0.4158154477692194</v>
       </c>
       <c r="AL4">
-        <v>2.32915747665289</v>
+        <v>290.2765576835458</v>
       </c>
       <c r="AM4">
-        <v>3.289469420743469</v>
+        <v>51.72461948569366</v>
       </c>
       <c r="AN4">
-        <v>8.872501816525679</v>
+        <v>44.61643303411766</v>
       </c>
       <c r="AO4">
-        <v>4.668114989934765</v>
+        <v>0.4101818366933968</v>
       </c>
       <c r="AP4">
-        <v>5.238546644410664</v>
+        <v>379.711643472909</v>
       </c>
       <c r="AQ4">
-        <v>10.59910928707379</v>
+        <v>114.9781429899593</v>
       </c>
       <c r="AR4">
-        <v>2.32915747665289</v>
+        <v>216.9820788130928</v>
       </c>
       <c r="AS4">
-        <v>8.282341883042758</v>
+        <v>249.3671844497951</v>
       </c>
       <c r="AT4">
-        <v>2.269684243359011</v>
+        <v>0.3916839737671025</v>
       </c>
       <c r="AU4">
-        <v>2.32915747665289</v>
+        <v>98.4651200559899</v>
       </c>
       <c r="AV4">
-        <v>0.7609694049229873</v>
+        <v>374.0519738427975</v>
       </c>
       <c r="AW4">
-        <v>28.99490693458182</v>
+        <v>90.50768079651468</v>
       </c>
       <c r="AX4">
-        <v>3.318176641869769</v>
+        <v>915.6083449043115</v>
       </c>
       <c r="AY4">
-        <v>7.293042999256587</v>
+        <v>823.1610146814162</v>
       </c>
       <c r="AZ4">
-        <v>6.299088386564875</v>
+        <v>202.4374323751483</v>
       </c>
       <c r="BA4">
-        <v>1.572430046930688</v>
+        <v>0.3561730606314086</v>
       </c>
       <c r="BB4">
-        <v>7.32937717008151</v>
+        <v>269.9741543316003</v>
       </c>
       <c r="BC4">
-        <v>12.3294160365354</v>
+        <v>277.544265949434</v>
       </c>
       <c r="BD4">
-        <v>88.89108103186159</v>
+        <v>146.4916093831248</v>
       </c>
       <c r="BE4">
-        <v>4.327241773250681</v>
+        <v>298.29180829635</v>
       </c>
       <c r="BF4">
-        <v>2.32915747665289</v>
+        <v>619.6415484842362</v>
       </c>
       <c r="BG4">
-        <v>8.341536201993764</v>
+        <v>146.2888318477287</v>
       </c>
       <c r="BH4">
-        <v>3.304896133529416</v>
+        <v>159.8402121535075</v>
       </c>
       <c r="BI4">
-        <v>15.34862255018501</v>
+        <v>166.0435925169849</v>
       </c>
       <c r="BJ4">
-        <v>2.32915747665289</v>
+        <v>88.49712688488594</v>
       </c>
       <c r="BK4">
-        <v>5.965001495468134</v>
+        <v>114.7415828044699</v>
       </c>
       <c r="BL4">
-        <v>6.829743208310449</v>
+        <v>68.94654991995179</v>
       </c>
       <c r="BM4">
-        <v>3.314418515911632</v>
+        <v>261.7184333417487</v>
       </c>
       <c r="BN4">
-        <v>17.84479159722506</v>
+        <v>325.4728727588843</v>
       </c>
       <c r="BO4">
-        <v>3.329256740261587</v>
+        <v>592.8484112733111</v>
       </c>
       <c r="BP4">
-        <v>25.58878746373358</v>
+        <v>280.7403646059324</v>
       </c>
       <c r="BQ4">
-        <v>2.342138309465724</v>
+        <v>62.31005078232892</v>
       </c>
       <c r="BR4">
-        <v>1.328901940342732</v>
+        <v>0.8561820924045516</v>
       </c>
       <c r="BS4">
-        <v>1.328901940342732</v>
+        <v>778.8633300807913</v>
       </c>
       <c r="BT4">
-        <v>1.779308264912632</v>
+        <v>161.7369526270649</v>
       </c>
       <c r="BU4">
-        <v>2.32915747665289</v>
+        <v>51.36843219514424</v>
       </c>
       <c r="BV4">
-        <v>1.328901940342732</v>
+        <v>240.0163143034344</v>
       </c>
       <c r="BW4">
-        <v>1.328901940342732</v>
+        <v>283.8045413450117</v>
       </c>
       <c r="BX4">
-        <v>1.328901940342732</v>
+        <v>0.3445521441852415</v>
       </c>
       <c r="BY4">
-        <v>1.328901940342732</v>
+        <v>166.4938926341314</v>
       </c>
       <c r="BZ4">
-        <v>1.328901940342732</v>
+        <v>244.756034532665</v>
       </c>
       <c r="CA4">
-        <v>1.328901940342732</v>
+        <v>161.3177996080844</v>
       </c>
       <c r="CB4">
-        <v>1.328901940342732</v>
+        <v>154.3235205539031</v>
       </c>
       <c r="CC4">
-        <v>4.329308609753158</v>
+        <v>54.18659482612799</v>
       </c>
       <c r="CD4">
-        <v>1.328901940342732</v>
+        <v>14.2814417164727</v>
       </c>
       <c r="CE4">
-        <v>1.328901940342732</v>
+        <v>136.3805020590328</v>
       </c>
       <c r="CF4">
-        <v>1.328901940342732</v>
+        <v>70.69240026418046</v>
       </c>
       <c r="CG4">
-        <v>16.17641458817542</v>
+        <v>136.4249262761473</v>
       </c>
       <c r="CH4">
-        <v>2.32915747665289</v>
+        <v>2.371922015108445</v>
       </c>
       <c r="CI4">
-        <v>2.32915747665289</v>
+        <v>180.4428482357168</v>
       </c>
       <c r="CJ4">
-        <v>4.817898567984542</v>
+        <v>98.16629889173375</v>
       </c>
       <c r="CK4">
-        <v>3.326811835359169</v>
+        <v>518.9245182183812</v>
       </c>
       <c r="CL4">
-        <v>4.165204725716007</v>
+        <v>132.2246443044193</v>
       </c>
       <c r="CM4">
-        <v>1.328901940342732</v>
+        <v>0.3765669191384886</v>
       </c>
       <c r="CN4">
-        <v>1.328901940342732</v>
+        <v>157.8478329234832</v>
       </c>
       <c r="CO4">
-        <v>1.328901940342732</v>
+        <v>173.3105728357471</v>
       </c>
       <c r="CP4">
-        <v>1.328901940342732</v>
+        <v>0.4037371727704256</v>
       </c>
       <c r="CQ4">
-        <v>2.340789213467394</v>
+        <v>118.2908450781405</v>
       </c>
       <c r="CR4">
-        <v>1.328901940342732</v>
+        <v>84.88868077490406</v>
       </c>
       <c r="CS4">
-        <v>1.328901940342732</v>
+        <v>446.0846137621749</v>
       </c>
       <c r="CT4">
-        <v>0.3972695302406143</v>
+        <v>73.14718637224948</v>
       </c>
       <c r="CU4">
-        <v>1.328901940342732</v>
+        <v>0.3714586299600242</v>
       </c>
       <c r="CV4">
-        <v>1.328901940342732</v>
+        <v>74.66356326590049</v>
       </c>
       <c r="CW4">
-        <v>85.67377458382325</v>
+        <v>0.4136167917929889</v>
       </c>
       <c r="CX4">
-        <v>1.328901940342732</v>
+        <v>393.2436624983059</v>
       </c>
       <c r="CY4">
-        <v>1.328901940342732</v>
+        <v>73.17096957075843</v>
       </c>
       <c r="CZ4">
-        <v>48.54128852811016</v>
+        <v>234.2214799681624</v>
       </c>
       <c r="DA4">
-        <v>145.3876543571414</v>
+        <v>0.3929430743600362</v>
       </c>
       <c r="DB4">
-        <v>1.328901940342732</v>
+        <v>181.016383268379</v>
       </c>
       <c r="DC4">
-        <v>1.328901940342732</v>
+        <v>102.9195649893624</v>
       </c>
       <c r="DD4">
-        <v>1.328901940342732</v>
+        <v>64.0180411570919</v>
       </c>
       <c r="DE4">
-        <v>4.329308609753158</v>
+        <v>529.3097510312334</v>
       </c>
       <c r="DF4">
-        <v>1.328901940342732</v>
+        <v>278.4765795399479</v>
       </c>
       <c r="DG4">
-        <v>15.88844929427692</v>
+        <v>72.63774794559096</v>
       </c>
       <c r="DH4">
-        <v>29.89534279110512</v>
+        <v>39.13062893333487</v>
       </c>
       <c r="DI4">
-        <v>1.328901940342732</v>
+        <v>149.4729023874159</v>
       </c>
       <c r="DJ4">
-        <v>1.328901940342732</v>
+        <v>152.1892252670952</v>
       </c>
       <c r="DK4">
-        <v>7.953778038776797</v>
+        <v>49.5691101038018</v>
       </c>
       <c r="DL4">
-        <v>17.48246091564408</v>
+        <v>331.7959063064768</v>
       </c>
       <c r="DM4">
-        <v>9.289418078215052</v>
+        <v>57.72488129302644</v>
       </c>
       <c r="DN4">
-        <v>5.322275793200657</v>
+        <v>170.8068733837984</v>
       </c>
       <c r="DO4">
-        <v>4.329308609753158</v>
+        <v>197.3156650309242</v>
       </c>
       <c r="DP4">
-        <v>1.328901940342732</v>
+        <v>61.97029110998434</v>
       </c>
       <c r="DQ4">
-        <v>1.328901940342732</v>
+        <v>86.18937308462981</v>
       </c>
       <c r="DR4">
-        <v>1.328901940342732</v>
+        <v>174.4338393226601</v>
       </c>
       <c r="DS4">
-        <v>1.328901940342732</v>
+        <v>229.4577632580672</v>
       </c>
       <c r="DT4">
-        <v>10.2045594223962</v>
+        <v>23.59982099265575</v>
       </c>
       <c r="DU4">
-        <v>1.328901940342732</v>
+        <v>2.346814724709934</v>
       </c>
       <c r="DV4">
-        <v>9.651196004376031</v>
+        <v>474.1539457466169</v>
       </c>
       <c r="DW4">
-        <v>25.18582969553838</v>
+        <v>413.816725705808</v>
       </c>
       <c r="DX4">
-        <v>1.328901940342732</v>
+        <v>45.43359358879012</v>
       </c>
       <c r="DY4">
-        <v>2.32915747665289</v>
+        <v>35.08397264714505</v>
       </c>
       <c r="DZ4">
-        <v>1.328901940342732</v>
+        <v>262.7533058288151</v>
       </c>
       <c r="EA4">
-        <v>1.328901940342732</v>
+        <v>92.92927089426198</v>
       </c>
       <c r="EB4">
-        <v>14.27362584044327</v>
+        <v>100.6016991340909</v>
       </c>
       <c r="EC4">
-        <v>61.25117477886946</v>
+        <v>80.03159659259646</v>
       </c>
       <c r="ED4">
-        <v>1.328901940342732</v>
+        <v>17.97011601710011</v>
       </c>
       <c r="EE4">
-        <v>1.328901940342732</v>
+        <v>48.93169410953477</v>
       </c>
       <c r="EF4">
-        <v>1.328901940342732</v>
+        <v>143.954405355861</v>
       </c>
       <c r="EG4">
-        <v>1.328901940342732</v>
+        <v>857.9665224718814</v>
       </c>
       <c r="EH4">
-        <v>1.328901940342732</v>
+        <v>10.45908766106791</v>
       </c>
       <c r="EI4">
-        <v>1.328901940342732</v>
+        <v>36.49411577218482</v>
       </c>
       <c r="EJ4">
-        <v>1.328901940342732</v>
+        <v>0.3398996531742858</v>
       </c>
       <c r="EK4">
-        <v>5.329340362002475</v>
+        <v>0.4206355743485661</v>
       </c>
       <c r="EL4">
-        <v>9.904195245086726</v>
+        <v>115.2820597005729</v>
       </c>
       <c r="EM4">
-        <v>1.328901940342732</v>
+        <v>122.5105981151259</v>
       </c>
       <c r="EN4">
-        <v>1.328901940342732</v>
+        <v>323.2680847808731</v>
       </c>
       <c r="EO4">
-        <v>1.328901940342732</v>
+        <v>72.62264917032766</v>
       </c>
       <c r="EP4">
-        <v>1.328901940342732</v>
+        <v>27.6774571072304</v>
       </c>
       <c r="EQ4">
-        <v>1.328901940342732</v>
+        <v>196.9197583727187</v>
       </c>
       <c r="ER4">
-        <v>16.54930109634823</v>
+        <v>76.1619982867401</v>
       </c>
       <c r="ES4">
-        <v>1.328901940342732</v>
+        <v>155.3118073371196</v>
       </c>
       <c r="ET4">
-        <v>1.328901940342732</v>
+        <v>146.638229788949</v>
       </c>
       <c r="EU4">
-        <v>1.328901940342732</v>
+        <v>307.2755522770174</v>
       </c>
       <c r="EV4">
-        <v>2.32915747665289</v>
+        <v>245.4794382186768</v>
       </c>
       <c r="EW4">
-        <v>4.333417978342919</v>
+        <v>79.23335512644532</v>
       </c>
       <c r="EX4">
-        <v>1.328901940342732</v>
+        <v>565.6001489220646</v>
       </c>
       <c r="EY4">
-        <v>1.328901940342732</v>
+        <v>51.69832467295423</v>
       </c>
       <c r="EZ4">
-        <v>1.328901940342732</v>
+        <v>483.6381150067364</v>
       </c>
       <c r="FA4">
-        <v>1.328901940342732</v>
+        <v>0.3594264531368961</v>
       </c>
       <c r="FB4">
-        <v>1.328901940342732</v>
+        <v>0.3758846909685881</v>
       </c>
       <c r="FC4">
-        <v>1.328901940342732</v>
+        <v>26.83748129420709</v>
       </c>
       <c r="FD4">
-        <v>1.328901940342732</v>
+        <v>653.4160615468719</v>
       </c>
       <c r="FE4">
-        <v>0.3372056029957535</v>
+        <v>126.5152981935515</v>
       </c>
       <c r="FF4">
-        <v>0.3902468649773783</v>
+        <v>132.6731720436364</v>
       </c>
       <c r="FG4">
-        <v>1.328901940342732</v>
+        <v>0.3627196533396861</v>
       </c>
       <c r="FH4">
-        <v>1.328901940342732</v>
+        <v>334.1886418373312</v>
       </c>
       <c r="FI4">
-        <v>2.32915747665289</v>
+        <v>0.4102480411639764</v>
       </c>
       <c r="FJ4">
-        <v>29.53115828940297</v>
+        <v>17.29233591176314</v>
       </c>
       <c r="FK4">
-        <v>1.328901940342732</v>
+        <v>88.09474141288901</v>
       </c>
       <c r="FL4">
-        <v>1.328901940342732</v>
+        <v>53.6663379115306</v>
       </c>
       <c r="FM4">
-        <v>3.269215958653084</v>
+        <v>350.4378479023544</v>
       </c>
       <c r="FN4">
-        <v>1.328901940342732</v>
+        <v>112.2355922257147</v>
       </c>
       <c r="FO4">
-        <v>1.328901940342732</v>
+        <v>47.24141309008569</v>
       </c>
       <c r="FP4">
-        <v>1.328901940342732</v>
+        <v>143.1926684104066</v>
       </c>
       <c r="FQ4">
-        <v>2.32915747665289</v>
+        <v>134.311029519306</v>
       </c>
       <c r="FR4">
-        <v>1.328901940342732</v>
+        <v>427.993022700049</v>
       </c>
       <c r="FS4">
-        <v>1.328901940342732</v>
+        <v>3.144666985559922</v>
       </c>
       <c r="FT4">
-        <v>1.328901940342732</v>
+        <v>153.5245174145871</v>
       </c>
       <c r="FU4">
-        <v>1.328901940342732</v>
+        <v>32.30334277266731</v>
       </c>
       <c r="FV4">
-        <v>110.5058236044883</v>
+        <v>0.3693149069745926</v>
       </c>
       <c r="FW4">
-        <v>1.328901940342732</v>
+        <v>199.6586919556724</v>
       </c>
       <c r="FX4">
-        <v>1.328901940342732</v>
+        <v>293.8547145809229</v>
       </c>
       <c r="FY4">
-        <v>1.328901940342732</v>
+        <v>0.4300801923092797</v>
       </c>
       <c r="FZ4">
-        <v>1.328901940342732</v>
+        <v>285.3893280873653</v>
       </c>
       <c r="GA4">
-        <v>1.328901940342732</v>
+        <v>45.50679482775055</v>
       </c>
       <c r="GB4">
-        <v>6.263529696057771</v>
+        <v>359.297012966245</v>
       </c>
       <c r="GC4">
-        <v>1.328901940342732</v>
+        <v>61.05344445308526</v>
       </c>
       <c r="GD4">
-        <v>1.328901940342732</v>
+        <v>560.5676045598677</v>
       </c>
       <c r="GE4">
-        <v>1.328901940342732</v>
+        <v>2.147188393433658</v>
       </c>
       <c r="GF4">
-        <v>8.298057678668956</v>
+        <v>93.95949722047912</v>
       </c>
       <c r="GG4">
-        <v>1.328901940342732</v>
+        <v>195.8333425305818</v>
       </c>
       <c r="GH4">
-        <v>16.95866275764241</v>
+        <v>210.2848696446346</v>
       </c>
       <c r="GI4">
-        <v>1.328901940342732</v>
+        <v>13.32214644090333</v>
       </c>
       <c r="GJ4">
-        <v>10.46371866547436</v>
+        <v>0.4176189374865835</v>
       </c>
       <c r="GK4">
-        <v>29.19759194687181</v>
+        <v>299.2222829114526</v>
       </c>
       <c r="GL4">
-        <v>1.328901940342732</v>
+        <v>156.1301324371913</v>
       </c>
       <c r="GM4">
-        <v>1.328901940342732</v>
+        <v>152.921247169186</v>
       </c>
       <c r="GN4">
-        <v>1.328901940342732</v>
+        <v>250.3076155351454</v>
       </c>
       <c r="GO4">
-        <v>3.327955378273912</v>
+        <v>76.18739024244736</v>
       </c>
       <c r="GP4">
-        <v>5.288026984097583</v>
+        <v>88.59881870048048</v>
       </c>
       <c r="GQ4">
-        <v>2.32915747665289</v>
+        <v>167.5328024537733</v>
       </c>
       <c r="GR4">
-        <v>0.335714310905678</v>
+        <v>279.7221619500367</v>
       </c>
       <c r="GS4">
-        <v>75.62866510332746</v>
+        <v>189.2169287759341</v>
+      </c>
+      <c r="GT4">
+        <v>216.0346899293944</v>
+      </c>
+      <c r="GU4">
+        <v>137.3867526722733</v>
+      </c>
+      <c r="GV4">
+        <v>188.5664309363796</v>
+      </c>
+      <c r="GW4">
+        <v>0.4189884482581119</v>
+      </c>
+      <c r="GX4">
+        <v>364.9038346498477</v>
+      </c>
+      <c r="GY4">
+        <v>0.4120925837091458</v>
+      </c>
+      <c r="GZ4">
+        <v>24.81368740105442</v>
+      </c>
+      <c r="HA4">
+        <v>13.72509038118517</v>
+      </c>
+      <c r="HB4">
+        <v>218.0592174222016</v>
+      </c>
+      <c r="HC4">
+        <v>336.8049140623867</v>
+      </c>
+      <c r="HD4">
+        <v>119.3071352931099</v>
+      </c>
+      <c r="HE4">
+        <v>112.2598755915182</v>
+      </c>
+      <c r="HF4">
+        <v>0.3822110452494084</v>
+      </c>
+      <c r="HG4">
+        <v>211.6413045868842</v>
+      </c>
+      <c r="HH4">
+        <v>26.27778338258493</v>
+      </c>
+      <c r="HI4">
+        <v>249.6912218396926</v>
+      </c>
+      <c r="HJ4">
+        <v>108.443129168884</v>
+      </c>
+      <c r="HK4">
+        <v>810.6774753646653</v>
+      </c>
+      <c r="HL4">
+        <v>301.0763397285311</v>
+      </c>
+      <c r="HM4">
+        <v>0.3522379781573292</v>
+      </c>
+      <c r="HN4">
+        <v>215.6535348233447</v>
+      </c>
+      <c r="HO4">
+        <v>211.080095251031</v>
+      </c>
+      <c r="HP4">
+        <v>90.84517525727489</v>
+      </c>
+      <c r="HQ4">
+        <v>60.27209011314099</v>
+      </c>
+      <c r="HR4">
+        <v>0.3723287001790473</v>
+      </c>
+      <c r="HS4">
+        <v>80.38612660283123</v>
+      </c>
+      <c r="HT4">
+        <v>95.64216070264406</v>
+      </c>
+      <c r="HU4">
+        <v>124.2271017059224</v>
+      </c>
+      <c r="HV4">
+        <v>160.2466033077952</v>
+      </c>
+      <c r="HW4">
+        <v>519.3296066153986</v>
+      </c>
+      <c r="HX4">
+        <v>0.402805353392878</v>
+      </c>
+      <c r="HY4">
+        <v>165.89954229878</v>
+      </c>
+      <c r="HZ4">
+        <v>28.19635378391433</v>
+      </c>
+      <c r="IA4">
+        <v>332.6455582323645</v>
+      </c>
+      <c r="IB4">
+        <v>94.58134103063865</v>
+      </c>
+      <c r="IC4">
+        <v>523.2901508266689</v>
+      </c>
+      <c r="ID4">
+        <v>426.3424104305664</v>
+      </c>
+      <c r="IE4">
+        <v>209.652600809049</v>
+      </c>
+      <c r="IF4">
+        <v>685.2379749333054</v>
+      </c>
+      <c r="IG4">
+        <v>210.053773507435</v>
+      </c>
+      <c r="IH4">
+        <v>165.6619874039059</v>
+      </c>
+      <c r="II4">
+        <v>98.81838234498416</v>
+      </c>
+      <c r="IJ4">
+        <v>196.2647061228515</v>
+      </c>
+      <c r="IK4">
+        <v>61.99874214904846</v>
+      </c>
+      <c r="IL4">
+        <v>76.24365287484069</v>
+      </c>
+      <c r="IM4">
+        <v>278.4918692610331</v>
+      </c>
+      <c r="IN4">
+        <v>119.2192454642344</v>
+      </c>
+      <c r="IO4">
+        <v>387.7666188146546</v>
+      </c>
+      <c r="IP4">
+        <v>75.82967242737259</v>
+      </c>
+      <c r="IQ4">
+        <v>165.8749039322151</v>
+      </c>
+      <c r="IR4">
+        <v>152.6048171020353</v>
+      </c>
+      <c r="IS4">
+        <v>228.2717502978672</v>
+      </c>
+      <c r="IT4">
+        <v>183.8305535190573</v>
+      </c>
+      <c r="IU4">
+        <v>411.3350983387057</v>
+      </c>
+      <c r="IV4">
+        <v>81.53614567152306</v>
+      </c>
+      <c r="IW4">
+        <v>65.88143499258962</v>
+      </c>
+      <c r="IX4">
+        <v>116.9760171620343</v>
+      </c>
+      <c r="IY4">
+        <v>34.32605449665254</v>
+      </c>
+      <c r="IZ4">
+        <v>41.33589970122187</v>
+      </c>
+      <c r="JA4">
+        <v>113.0964016327124</v>
+      </c>
+      <c r="JB4">
+        <v>119.8854958022751</v>
+      </c>
+      <c r="JC4">
+        <v>116.1087943880394</v>
+      </c>
+      <c r="JD4">
+        <v>162.7660321865795</v>
+      </c>
+      <c r="JE4">
+        <v>551.7112277617856</v>
+      </c>
+      <c r="JF4">
+        <v>419.0692194826393</v>
+      </c>
+      <c r="JG4">
+        <v>132.5628610973419</v>
+      </c>
+      <c r="JH4">
+        <v>93.98067164056614</v>
+      </c>
+      <c r="JI4">
+        <v>0.4813488420876625</v>
+      </c>
+      <c r="JJ4">
+        <v>155.5534180874164</v>
+      </c>
+      <c r="JK4">
+        <v>13.00765904354465</v>
+      </c>
+      <c r="JL4">
+        <v>23.95892718286541</v>
+      </c>
+      <c r="JM4">
+        <v>22.18776383872879</v>
+      </c>
+      <c r="JN4">
+        <v>164.0629780137199</v>
+      </c>
+      <c r="JO4">
+        <v>12.08523041079599</v>
+      </c>
+      <c r="JP4">
+        <v>92.84190981012655</v>
+      </c>
+      <c r="JQ4">
+        <v>248.7358959386738</v>
+      </c>
+      <c r="JR4">
+        <v>311.1769844481566</v>
+      </c>
+      <c r="JS4">
+        <v>0.3513877581796315</v>
+      </c>
+      <c r="JT4">
+        <v>60.65964978114128</v>
+      </c>
+      <c r="JU4">
+        <v>0.3774075615044727</v>
+      </c>
+      <c r="JV4">
+        <v>166.8843084113948</v>
+      </c>
+      <c r="JW4">
+        <v>189.8866791779799</v>
+      </c>
+      <c r="JX4">
+        <v>130.995499224288</v>
+      </c>
+      <c r="JY4">
+        <v>0.3776389341374017</v>
+      </c>
+      <c r="JZ4">
+        <v>27.01089002308902</v>
+      </c>
+      <c r="KA4">
+        <v>191.3992537800678</v>
+      </c>
+      <c r="KB4">
+        <v>179.373513286883</v>
+      </c>
+      <c r="KC4">
+        <v>195.2981839542218</v>
+      </c>
+      <c r="KD4">
+        <v>601.528445927729</v>
+      </c>
+      <c r="KE4">
+        <v>0.3650183228689809</v>
+      </c>
+      <c r="KF4">
+        <v>0.3963955734576097</v>
+      </c>
+      <c r="KG4">
+        <v>172.8311603779977</v>
+      </c>
+      <c r="KH4">
+        <v>50.39142490758186</v>
+      </c>
+      <c r="KI4">
+        <v>52.06270997382587</v>
+      </c>
+      <c r="KJ4">
+        <v>39.56913000702163</v>
+      </c>
+      <c r="KK4">
+        <v>0.3977981611104132</v>
+      </c>
+      <c r="KL4">
+        <v>312.8415188389348</v>
+      </c>
+      <c r="KM4">
+        <v>0.3611311781870717</v>
+      </c>
+      <c r="KN4">
+        <v>21.93374044924424</v>
+      </c>
+      <c r="KO4">
+        <v>48.19923761576325</v>
+      </c>
+      <c r="KP4">
+        <v>149.8593162976524</v>
+      </c>
+      <c r="KQ4">
+        <v>180.5890212859902</v>
+      </c>
+      <c r="KR4">
+        <v>105.6957134799713</v>
+      </c>
+      <c r="KS4">
+        <v>262.4214912227808</v>
+      </c>
+      <c r="KT4">
+        <v>241.8894059526551</v>
+      </c>
+      <c r="KU4">
+        <v>0.7904499604317714</v>
+      </c>
+      <c r="KV4">
+        <v>179.0037380815205</v>
+      </c>
+      <c r="KW4">
+        <v>156.4373356289198</v>
+      </c>
+      <c r="KX4">
+        <v>105.2528662400834</v>
+      </c>
+      <c r="KY4">
+        <v>58.47387623030465</v>
+      </c>
+      <c r="KZ4">
+        <v>195.4834907921858</v>
+      </c>
+      <c r="LA4">
+        <v>209.1069933188627</v>
+      </c>
+      <c r="LB4">
+        <v>590.0030155896465</v>
+      </c>
+      <c r="LC4">
+        <v>91.26860066129507</v>
+      </c>
+      <c r="LD4">
+        <v>93.34806487677301</v>
+      </c>
+      <c r="LE4">
+        <v>292.6530256059781</v>
+      </c>
+      <c r="LF4">
+        <v>270.5129367574436</v>
+      </c>
+      <c r="LG4">
+        <v>167.6695830405001</v>
+      </c>
+      <c r="LH4">
+        <v>187.6539420681934</v>
+      </c>
+      <c r="LI4">
+        <v>270.2833365826863</v>
+      </c>
+      <c r="LJ4">
+        <v>79.26001167987729</v>
+      </c>
+      <c r="LK4">
+        <v>0.352800989422593</v>
+      </c>
+      <c r="LL4">
+        <v>105.2692662059042</v>
+      </c>
+      <c r="LM4">
+        <v>393.3322150118484</v>
+      </c>
+      <c r="LN4">
+        <v>34.73183699829567</v>
+      </c>
+      <c r="LO4">
+        <v>88.60927999228672</v>
+      </c>
+      <c r="LP4">
+        <v>59.33178393278879</v>
+      </c>
+      <c r="LQ4">
+        <v>117.8370851214218</v>
+      </c>
+      <c r="LR4">
+        <v>70.29501543201243</v>
+      </c>
+      <c r="LS4">
+        <v>105.5974946601324</v>
+      </c>
+      <c r="LT4">
+        <v>121.4897865147971</v>
+      </c>
+      <c r="LU4">
+        <v>85.37868618304881</v>
+      </c>
+      <c r="LV4">
+        <v>0.3666332988796933</v>
+      </c>
+      <c r="LW4">
+        <v>75.32429083165337</v>
+      </c>
+      <c r="LX4">
+        <v>301.7491394027687</v>
+      </c>
+      <c r="LY4">
+        <v>207.0942632914991</v>
+      </c>
+      <c r="LZ4">
+        <v>6.403134991320656</v>
+      </c>
+      <c r="MA4">
+        <v>203.7943092014632</v>
+      </c>
+      <c r="MB4">
+        <v>104.2695107918097</v>
+      </c>
+      <c r="MC4">
+        <v>533.1181347493369</v>
+      </c>
+      <c r="MD4">
+        <v>576.7744033517293</v>
+      </c>
+      <c r="ME4">
+        <v>0.3643733476308186</v>
+      </c>
+      <c r="MF4">
+        <v>35.46174884905898</v>
+      </c>
+      <c r="MG4">
+        <v>60.30949410453757</v>
+      </c>
+      <c r="MH4">
+        <v>312.1136342017218</v>
+      </c>
+      <c r="MI4">
+        <v>149.2459257183564</v>
+      </c>
+      <c r="MJ4">
+        <v>0.3541432696434272</v>
+      </c>
+      <c r="MK4">
+        <v>99.00900659117012</v>
+      </c>
+      <c r="ML4">
+        <v>33.23720274039338</v>
+      </c>
+      <c r="MM4">
+        <v>202.6552457229737</v>
+      </c>
+      <c r="MN4">
+        <v>41.05967161617488</v>
+      </c>
+      <c r="MO4">
+        <v>407.526369462328</v>
+      </c>
+      <c r="MP4">
+        <v>0.3626205099422528</v>
+      </c>
+      <c r="MQ4">
+        <v>77.31110434620591</v>
+      </c>
+      <c r="MR4">
+        <v>567.9605031929054</v>
+      </c>
+      <c r="MS4">
+        <v>198.4502910921555</v>
+      </c>
+      <c r="MT4">
+        <v>489.3768981222992</v>
+      </c>
+      <c r="MU4">
+        <v>466.4253760224141</v>
+      </c>
+      <c r="MV4">
+        <v>66.43189342981778</v>
+      </c>
+      <c r="MW4">
+        <v>8.634552259636948</v>
+      </c>
+      <c r="MX4">
+        <v>24.98666725888118</v>
+      </c>
+      <c r="MY4">
+        <v>76.92525391185342</v>
+      </c>
+      <c r="MZ4">
+        <v>25.6535033942746</v>
+      </c>
+      <c r="NA4">
+        <v>131.2376623488662</v>
+      </c>
+      <c r="NB4">
+        <v>408.457182959307</v>
+      </c>
+      <c r="NC4">
+        <v>149.2118770863285</v>
+      </c>
+      <c r="ND4">
+        <v>0.4756974650282003</v>
+      </c>
+      <c r="NE4">
+        <v>130.6010527741185</v>
+      </c>
+      <c r="NF4">
+        <v>54.86697815145272</v>
+      </c>
+      <c r="NG4">
+        <v>125.3908347536384</v>
+      </c>
+      <c r="NH4">
+        <v>465.1006090570665</v>
+      </c>
+      <c r="NI4">
+        <v>114.2692576689664</v>
+      </c>
+      <c r="NJ4">
+        <v>302.0254165907173</v>
+      </c>
+      <c r="NK4">
+        <v>109.5943781352784</v>
+      </c>
+      <c r="NL4">
+        <v>83.28259561320296</v>
+      </c>
+      <c r="NM4">
+        <v>150.5915422830104</v>
+      </c>
+      <c r="NN4">
+        <v>414.7767040474934</v>
+      </c>
+      <c r="NO4">
+        <v>77.23495310486878</v>
+      </c>
+      <c r="NP4">
+        <v>83.57232667084853</v>
+      </c>
+      <c r="NQ4">
+        <v>195.0294017966412</v>
+      </c>
+      <c r="NR4">
+        <v>219.589133905883</v>
+      </c>
+      <c r="NS4">
+        <v>163.9547624996521</v>
+      </c>
+      <c r="NT4">
+        <v>105.8632953755033</v>
+      </c>
+      <c r="NU4">
+        <v>76.2770129727262</v>
+      </c>
+      <c r="NV4">
+        <v>279.6997514990887</v>
+      </c>
+      <c r="NW4">
+        <v>589.5749231252232</v>
+      </c>
+      <c r="NX4">
+        <v>97.27608003986506</v>
+      </c>
+      <c r="NY4">
+        <v>83.77958468889514</v>
+      </c>
+      <c r="NZ4">
+        <v>520.8832875477677</v>
+      </c>
+      <c r="OA4">
+        <v>182.3298798630412</v>
+      </c>
+      <c r="OB4">
+        <v>57.08485186961779</v>
+      </c>
+      <c r="OC4">
+        <v>0.4088271328619999</v>
+      </c>
+      <c r="OD4">
+        <v>0.371819918158913</v>
+      </c>
+      <c r="OE4">
+        <v>43.56316750439291</v>
+      </c>
+      <c r="OF4">
+        <v>0.3599298411344201</v>
+      </c>
+      <c r="OG4">
+        <v>44.43320780948439</v>
+      </c>
+      <c r="OH4">
+        <v>177.6764065475686</v>
+      </c>
+      <c r="OI4">
+        <v>249.2851954929689</v>
+      </c>
+      <c r="OJ4">
+        <v>36.8213359544047</v>
+      </c>
+      <c r="OK4">
+        <v>18.31936167213292</v>
       </c>
     </row>
   </sheetData>
